--- a/data/d_quarterly_income.xlsx
+++ b/data/d_quarterly_income.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W66"/>
+  <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,4734 +434,5338 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>fiscalDateEnding</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>grossProfit</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>totalRevenue</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>costOfRevenue</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>costofGoodsAndServicesSold</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>operatingIncome</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>sellingGeneralAndAdministrative</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>researchAndDevelopment</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>operatingExpenses</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>investmentIncomeNet</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>netInterestIncome</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>interestIncome</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>interestExpense</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>nonInterestIncome</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>otherNonOperatingIncome</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>depreciationAndAmortization</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>incomeBeforeTax</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>incomeTaxExpense</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>interestAndDebtExpense</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>netIncomeFromContinuingOperations</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>comprehensiveIncomeNetOfTax</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>ebit</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>ebitda</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>netIncome</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>43879000000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>94930000000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>57574000000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>51051000000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>29591000000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6523000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7765000000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>14288000000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>94930000000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>29610000000</v>
+      </c>
+      <c r="S2" t="n">
+        <v>14874000000</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>14736000000</v>
+      </c>
+      <c r="V2" t="n">
+        <v>15980000000</v>
+      </c>
+      <c r="W2" t="n">
+        <v>29591000000</v>
+      </c>
+      <c r="X2" t="n">
+        <v>29591000000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>14736000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>39678000000</v>
       </c>
-      <c r="B2" t="n">
+      <c r="D3" t="n">
         <v>85777000000</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E3" t="n">
         <v>52419000000</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F3" t="n">
         <v>46099000000</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G3" t="n">
         <v>25352000000</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H3" t="n">
         <v>6320000000</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I3" t="n">
         <v>8006000000</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J3" t="n">
         <v>14326000000</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>85777000000</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>2850000000</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R3" t="n">
         <v>25494000000</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="S3" t="n">
         <v>4046000000</v>
       </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>21448000000</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V3" t="n">
         <v>21992000000</v>
       </c>
-      <c r="U2" t="n">
+      <c r="W3" t="n">
         <v>25352000000</v>
       </c>
-      <c r="V2" t="n">
+      <c r="X3" t="n">
         <v>28202000000</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Y3" t="n">
         <v>21448000000</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-03-31</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>42271000000</v>
       </c>
-      <c r="B3" t="n">
+      <c r="D4" t="n">
         <v>90753000000</v>
       </c>
-      <c r="C3" t="n">
+      <c r="E4" t="n">
         <v>54950000000</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F4" t="n">
         <v>48482000000</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G4" t="n">
         <v>27900000000</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H4" t="n">
         <v>6468000000</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I4" t="n">
         <v>7903000000</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J4" t="n">
         <v>14371000000</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>90753000000</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>2836000000</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R4" t="n">
         <v>28058000000</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="S4" t="n">
         <v>4422000000</v>
       </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>23636000000</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V4" t="n">
         <v>24054000000</v>
       </c>
-      <c r="U3" t="n">
+      <c r="W4" t="n">
         <v>27900000000</v>
       </c>
-      <c r="V3" t="n">
+      <c r="X4" t="n">
         <v>30736000000</v>
       </c>
-      <c r="W3" t="n">
+      <c r="Y4" t="n">
         <v>23636000000</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-12-31</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>54855000000</v>
       </c>
-      <c r="B4" t="n">
+      <c r="D5" t="n">
         <v>119575000000</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E5" t="n">
         <v>71506000000</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F5" t="n">
         <v>64720000000</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G5" t="n">
         <v>40373000000</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H5" t="n">
         <v>6786000000</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I5" t="n">
         <v>7696000000</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J5" t="n">
         <v>14482000000</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>1002000000</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O5" t="n">
         <v>119575000000</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>2848000000</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R5" t="n">
         <v>40323000000</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="S5" t="n">
         <v>6407000000</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>33916000000</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V5" t="n">
         <v>35990000000</v>
       </c>
-      <c r="U4" t="n">
+      <c r="W5" t="n">
         <v>40373000000</v>
       </c>
-      <c r="V4" t="n">
+      <c r="X5" t="n">
         <v>43221000000</v>
       </c>
-      <c r="W4" t="n">
+      <c r="Y5" t="n">
         <v>33916000000</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>40427000000</v>
       </c>
-      <c r="B5" t="n">
+      <c r="D6" t="n">
         <v>88496000000</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E6" t="n">
         <v>55222000000</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F6" t="n">
         <v>49071000000</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G6" t="n">
         <v>26969000000</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H6" t="n">
         <v>6151000000</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I6" t="n">
         <v>7307000000</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J6" t="n">
         <v>13458000000</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K6" t="n">
         <v>984000000</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L6" t="n">
         <v>-1002000000</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M6" t="n">
         <v>18000000</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N6" t="n">
         <v>1002000000</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O6" t="n">
         <v>89498000000</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P6" t="n">
         <v>47000000</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q6" t="n">
         <v>2653000000</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R6" t="n">
         <v>26998000000</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="S6" t="n">
         <v>4042000000</v>
       </c>
-      <c r="R5" t="n">
+      <c r="T6" t="n">
         <v>1002000000</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U6" t="n">
         <v>22956000000</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V6" t="n">
         <v>23305000000</v>
       </c>
-      <c r="U5" t="n">
+      <c r="W6" t="n">
         <v>28000000000</v>
       </c>
-      <c r="V5" t="n">
+      <c r="X6" t="n">
         <v>29622000000</v>
       </c>
-      <c r="W5" t="n">
+      <c r="Y6" t="n">
         <v>22956000000</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>36413000000</v>
       </c>
-      <c r="B6" t="n">
+      <c r="D7" t="n">
         <v>80799000000</v>
       </c>
-      <c r="C6" t="n">
+      <c r="E7" t="n">
         <v>51357000000</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F7" t="n">
         <v>45384000000</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G7" t="n">
         <v>22998000000</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H7" t="n">
         <v>5973000000</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I7" t="n">
         <v>7442000000</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J7" t="n">
         <v>13415000000</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K7" t="n">
         <v>980000000</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L7" t="n">
         <v>-998000000</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M7" t="n">
         <v>18000000</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N7" t="n">
         <v>998000000</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O7" t="n">
         <v>81797000000</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P7" t="n">
         <v>-247000000</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q7" t="n">
         <v>3052000000</v>
       </c>
-      <c r="P6" t="n">
+      <c r="R7" t="n">
         <v>22733000000</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="S7" t="n">
         <v>2852000000</v>
       </c>
-      <c r="R6" t="n">
+      <c r="T7" t="n">
         <v>998000000</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U7" t="n">
         <v>19881000000</v>
       </c>
-      <c r="T6" t="n">
+      <c r="V7" t="n">
         <v>19826000000</v>
       </c>
-      <c r="U6" t="n">
+      <c r="W7" t="n">
         <v>23731000000</v>
       </c>
-      <c r="V6" t="n">
+      <c r="X7" t="n">
         <v>26050000000</v>
       </c>
-      <c r="W6" t="n">
+      <c r="Y7" t="n">
         <v>19881000000</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>41976000000</v>
       </c>
-      <c r="B7" t="n">
+      <c r="D8" t="n">
         <v>94836000000</v>
       </c>
-      <c r="C7" t="n">
+      <c r="E8" t="n">
         <v>59061000000</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F8" t="n">
         <v>52860000000</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G8" t="n">
         <v>28318000000</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H8" t="n">
         <v>6201000000</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I8" t="n">
         <v>7457000000</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J8" t="n">
         <v>13658000000</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>-12000000</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M8" t="n">
         <v>12000000</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N8" t="n">
         <v>930000000</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O8" t="n">
         <v>94836000000</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P8" t="n">
         <v>76000000</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q8" t="n">
         <v>2898000000</v>
       </c>
-      <c r="P7" t="n">
+      <c r="R8" t="n">
         <v>28382000000</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="S8" t="n">
         <v>4222000000</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>24160000000</v>
       </c>
-      <c r="T7" t="n">
+      <c r="V8" t="n">
         <v>25326000000</v>
       </c>
-      <c r="U7" t="n">
+      <c r="W8" t="n">
         <v>29312000000</v>
       </c>
-      <c r="V7" t="n">
+      <c r="X8" t="n">
         <v>31216000000</v>
       </c>
-      <c r="W7" t="n">
+      <c r="Y8" t="n">
         <v>24160000000</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2022-12-31</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>50332000000</v>
       </c>
-      <c r="B8" t="n">
+      <c r="D9" t="n">
         <v>116151000000</v>
       </c>
-      <c r="C8" t="n">
+      <c r="E9" t="n">
         <v>73429000000</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F9" t="n">
         <v>66822000000</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G9" t="n">
         <v>36016000000</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H9" t="n">
         <v>6607000000</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I9" t="n">
         <v>7709000000</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J9" t="n">
         <v>14316000000</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K9" t="n">
         <v>868000000</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L9" t="n">
         <v>-1003000000</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M9" t="n">
         <v>135000000</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N9" t="n">
         <v>1003000000</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O9" t="n">
         <v>117154000000</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P9" t="n">
         <v>-258000000</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q9" t="n">
         <v>2916000000</v>
       </c>
-      <c r="P8" t="n">
+      <c r="R9" t="n">
         <v>35623000000</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="S9" t="n">
         <v>5625000000</v>
       </c>
-      <c r="R8" t="n">
+      <c r="T9" t="n">
         <v>1003000000</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U9" t="n">
         <v>29998000000</v>
       </c>
-      <c r="T8" t="n">
+      <c r="V9" t="n">
         <v>28195000000</v>
       </c>
-      <c r="U8" t="n">
+      <c r="W9" t="n">
         <v>36626000000</v>
       </c>
-      <c r="V8" t="n">
+      <c r="X9" t="n">
         <v>38932000000</v>
       </c>
-      <c r="W8" t="n">
+      <c r="Y9" t="n">
         <v>29998000000</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>38095000000</v>
       </c>
-      <c r="B9" t="n">
+      <c r="D10" t="n">
         <v>89319000000</v>
       </c>
-      <c r="C9" t="n">
+      <c r="E10" t="n">
         <v>58491000000</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F10" t="n">
         <v>52051000000</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G10" t="n">
         <v>24894000000</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H10" t="n">
         <v>6440000000</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I10" t="n">
         <v>6761000000</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J10" t="n">
         <v>13201000000</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K10" t="n">
         <v>753000000</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L10" t="n">
         <v>-827000000</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M10" t="n">
         <v>74000000</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N10" t="n">
         <v>827000000</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O10" t="n">
         <v>90146000000</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P10" t="n">
         <v>-163000000</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q10" t="n">
         <v>2865000000</v>
       </c>
-      <c r="P9" t="n">
+      <c r="R10" t="n">
         <v>24657000000</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="S10" t="n">
         <v>3936000000</v>
       </c>
-      <c r="R9" t="n">
+      <c r="T10" t="n">
         <v>827000000</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U10" t="n">
         <v>20721000000</v>
       </c>
-      <c r="T9" t="n">
+      <c r="V10" t="n">
         <v>18909000000</v>
       </c>
-      <c r="U9" t="n">
+      <c r="W10" t="n">
         <v>25484000000</v>
       </c>
-      <c r="V9" t="n">
+      <c r="X10" t="n">
         <v>28349000000</v>
       </c>
-      <c r="W9" t="n">
+      <c r="Y10" t="n">
         <v>20721000000</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>35885000000</v>
       </c>
-      <c r="B10" t="n">
+      <c r="D11" t="n">
         <v>82240000000</v>
       </c>
-      <c r="C10" t="n">
+      <c r="E11" t="n">
         <v>53086000000</v>
       </c>
-      <c r="D10" t="n">
+      <c r="F11" t="n">
         <v>47074000000</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G11" t="n">
         <v>23076000000</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H11" t="n">
         <v>6012000000</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I11" t="n">
         <v>6797000000</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J11" t="n">
         <v>12809000000</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K11" t="n">
         <v>722000000</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L11" t="n">
         <v>-719000000</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M11" t="n">
         <v>722000000</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N11" t="n">
         <v>719000000</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O11" t="n">
         <v>82959000000</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P11" t="n">
         <v>-13000000</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q11" t="n">
         <v>2805000000</v>
       </c>
-      <c r="P10" t="n">
+      <c r="R11" t="n">
         <v>23066000000</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="S11" t="n">
         <v>3624000000</v>
       </c>
-      <c r="R10" t="n">
+      <c r="T11" t="n">
         <v>719000000</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U11" t="n">
         <v>19442000000</v>
       </c>
-      <c r="T10" t="n">
+      <c r="V11" t="n">
         <v>16639000000</v>
       </c>
-      <c r="U10" t="n">
+      <c r="W11" t="n">
         <v>23785000000</v>
       </c>
-      <c r="V10" t="n">
+      <c r="X11" t="n">
         <v>25881000000</v>
       </c>
-      <c r="W10" t="n">
+      <c r="Y11" t="n">
         <v>19442000000</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2022-03-31</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>42559000000</v>
       </c>
-      <c r="B11" t="n">
+      <c r="D12" t="n">
         <v>96587000000</v>
       </c>
-      <c r="C11" t="n">
+      <c r="E12" t="n">
         <v>60912000000</v>
       </c>
-      <c r="D11" t="n">
+      <c r="F12" t="n">
         <v>54719000000</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G12" t="n">
         <v>29979000000</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H12" t="n">
         <v>6193000000</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I12" t="n">
         <v>6387000000</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J12" t="n">
         <v>12580000000</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K12" t="n">
         <v>700000000</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L12" t="n">
         <v>-691000000</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M12" t="n">
         <v>700000000</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N12" t="n">
         <v>691000000</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O12" t="n">
         <v>97278000000</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P12" t="n">
         <v>151000000</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q12" t="n">
         <v>2737000000</v>
       </c>
-      <c r="P11" t="n">
+      <c r="R12" t="n">
         <v>30139000000</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="S12" t="n">
         <v>5129000000</v>
       </c>
-      <c r="R11" t="n">
+      <c r="T12" t="n">
         <v>691000000</v>
       </c>
-      <c r="S11" t="n">
+      <c r="U12" t="n">
         <v>25010000000</v>
       </c>
-      <c r="T11" t="n">
+      <c r="V12" t="n">
         <v>19443000000</v>
       </c>
-      <c r="U11" t="n">
+      <c r="W12" t="n">
         <v>30830000000</v>
       </c>
-      <c r="V11" t="n">
+      <c r="X12" t="n">
         <v>32716000000</v>
       </c>
-      <c r="W11" t="n">
+      <c r="Y12" t="n">
         <v>25010000000</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>54243000000</v>
       </c>
-      <c r="B12" t="n">
+      <c r="D13" t="n">
         <v>123251000000</v>
       </c>
-      <c r="C12" t="n">
+      <c r="E13" t="n">
         <v>76151000000</v>
       </c>
-      <c r="D12" t="n">
+      <c r="F13" t="n">
         <v>69702000000</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G13" t="n">
         <v>41488000000</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H13" t="n">
         <v>6449000000</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I13" t="n">
         <v>6306000000</v>
       </c>
-      <c r="H12" t="n">
+      <c r="J13" t="n">
         <v>12755000000</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K13" t="n">
         <v>650000000</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L13" t="n">
         <v>-694000000</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M13" t="n">
         <v>650000000</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N13" t="n">
         <v>694000000</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O13" t="n">
         <v>123945000000</v>
       </c>
-      <c r="N12" t="n">
+      <c r="P13" t="n">
         <v>-203000000</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2697000000</v>
-      </c>
-      <c r="P12" t="n">
-        <v>41241000000</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>6611000000</v>
-      </c>
-      <c r="R12" t="n">
-        <v>694000000</v>
-      </c>
-      <c r="S12" t="n">
-        <v>34630000000</v>
-      </c>
-      <c r="T12" t="n">
-        <v>33540000000</v>
-      </c>
-      <c r="U12" t="n">
-        <v>41935000000</v>
-      </c>
-      <c r="V12" t="n">
-        <v>44185000000</v>
-      </c>
-      <c r="W12" t="n">
-        <v>34630000000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>35174000000</v>
-      </c>
-      <c r="B13" t="n">
-        <v>82688000000</v>
-      </c>
-      <c r="C13" t="n">
-        <v>53802000000</v>
-      </c>
-      <c r="D13" t="n">
-        <v>48186000000</v>
-      </c>
-      <c r="E13" t="n">
-        <v>23786000000</v>
-      </c>
-      <c r="F13" t="n">
-        <v>5616000000</v>
-      </c>
-      <c r="G13" t="n">
-        <v>5772000000</v>
-      </c>
-      <c r="H13" t="n">
-        <v>11388000000</v>
-      </c>
-      <c r="I13" t="n">
-        <v>659000000</v>
-      </c>
-      <c r="J13" t="n">
-        <v>-672000000</v>
-      </c>
-      <c r="K13" t="n">
-        <v>659000000</v>
-      </c>
-      <c r="L13" t="n">
-        <v>672000000</v>
-      </c>
-      <c r="M13" t="n">
-        <v>83360000000</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-525000000</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2989000000</v>
-      </c>
-      <c r="P13" t="n">
-        <v>23248000000</v>
       </c>
       <c r="Q13" t="n">
         <v>2697000000</v>
       </c>
       <c r="R13" t="n">
+        <v>41241000000</v>
+      </c>
+      <c r="S13" t="n">
+        <v>6611000000</v>
+      </c>
+      <c r="T13" t="n">
+        <v>694000000</v>
+      </c>
+      <c r="U13" t="n">
+        <v>34630000000</v>
+      </c>
+      <c r="V13" t="n">
+        <v>33540000000</v>
+      </c>
+      <c r="W13" t="n">
+        <v>41935000000</v>
+      </c>
+      <c r="X13" t="n">
+        <v>44185000000</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>34630000000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2021-09-30</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>35174000000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>82688000000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>53802000000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>48186000000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>23786000000</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5616000000</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5772000000</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11388000000</v>
+      </c>
+      <c r="K14" t="n">
+        <v>659000000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-672000000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>659000000</v>
+      </c>
+      <c r="N14" t="n">
         <v>672000000</v>
       </c>
-      <c r="S13" t="n">
+      <c r="O14" t="n">
+        <v>83360000000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-525000000</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2989000000</v>
+      </c>
+      <c r="R14" t="n">
+        <v>23248000000</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2697000000</v>
+      </c>
+      <c r="T14" t="n">
+        <v>672000000</v>
+      </c>
+      <c r="U14" t="n">
         <v>20551000000</v>
       </c>
-      <c r="T13" t="n">
+      <c r="V14" t="n">
         <v>20656000000</v>
       </c>
-      <c r="U13" t="n">
+      <c r="W14" t="n">
         <v>23920000000</v>
       </c>
-      <c r="V13" t="n">
+      <c r="X14" t="n">
         <v>26775000000</v>
       </c>
-      <c r="W13" t="n">
+      <c r="Y14" t="n">
         <v>20551000000</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>35255000000</v>
       </c>
-      <c r="B14" t="n">
+      <c r="D15" t="n">
         <v>80769000000</v>
       </c>
-      <c r="C14" t="n">
+      <c r="E15" t="n">
         <v>51591000000</v>
       </c>
-      <c r="D14" t="n">
+      <c r="F15" t="n">
         <v>46179000000</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G15" t="n">
         <v>24126000000</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H15" t="n">
         <v>5412000000</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I15" t="n">
         <v>5717000000</v>
       </c>
-      <c r="H14" t="n">
+      <c r="J15" t="n">
         <v>11129000000</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K15" t="n">
         <v>719000000</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L15" t="n">
         <v>-665000000</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M15" t="n">
         <v>719000000</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N15" t="n">
         <v>665000000</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O15" t="n">
         <v>81434000000</v>
       </c>
-      <c r="N14" t="n">
+      <c r="P15" t="n">
         <v>189000000</v>
       </c>
-      <c r="O14" t="n">
+      <c r="Q15" t="n">
         <v>2832000000</v>
       </c>
-      <c r="P14" t="n">
+      <c r="R15" t="n">
         <v>24369000000</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="S15" t="n">
         <v>2625000000</v>
       </c>
-      <c r="R14" t="n">
+      <c r="T15" t="n">
         <v>665000000</v>
       </c>
-      <c r="S14" t="n">
+      <c r="U15" t="n">
         <v>21744000000</v>
       </c>
-      <c r="T14" t="n">
+      <c r="V15" t="n">
         <v>22088000000</v>
       </c>
-      <c r="U14" t="n">
+      <c r="W15" t="n">
         <v>25034000000</v>
       </c>
-      <c r="V14" t="n">
+      <c r="X15" t="n">
         <v>26958000000</v>
       </c>
-      <c r="W14" t="n">
+      <c r="Y15" t="n">
         <v>21744000000</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2021-03-31</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>38079000000</v>
       </c>
-      <c r="B15" t="n">
+      <c r="D16" t="n">
         <v>88914000000</v>
       </c>
-      <c r="C15" t="n">
+      <c r="E16" t="n">
         <v>56819000000</v>
       </c>
-      <c r="D15" t="n">
+      <c r="F16" t="n">
         <v>51505000000</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G16" t="n">
         <v>27503000000</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H16" t="n">
         <v>5314000000</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I16" t="n">
         <v>5262000000</v>
       </c>
-      <c r="H15" t="n">
+      <c r="J16" t="n">
         <v>10576000000</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K16" t="n">
         <v>718000000</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L16" t="n">
         <v>-670000000</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M16" t="n">
         <v>718000000</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N16" t="n">
         <v>670000000</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O16" t="n">
         <v>89584000000</v>
       </c>
-      <c r="N15" t="n">
+      <c r="P16" t="n">
         <v>460000000</v>
       </c>
-      <c r="O15" t="n">
+      <c r="Q16" t="n">
         <v>2797000000</v>
       </c>
-      <c r="P15" t="n">
+      <c r="R16" t="n">
         <v>28011000000</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="S16" t="n">
         <v>4381000000</v>
       </c>
-      <c r="R15" t="n">
+      <c r="T16" t="n">
         <v>670000000</v>
       </c>
-      <c r="S15" t="n">
+      <c r="U16" t="n">
         <v>23630000000</v>
       </c>
-      <c r="T15" t="n">
+      <c r="V16" t="n">
         <v>23165000000</v>
       </c>
-      <c r="U15" t="n">
+      <c r="W16" t="n">
         <v>28681000000</v>
       </c>
-      <c r="V15" t="n">
+      <c r="X16" t="n">
         <v>30300000000</v>
       </c>
-      <c r="W15" t="n">
+      <c r="Y16" t="n">
         <v>23630000000</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2020-12-31</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>44328000000</v>
       </c>
-      <c r="B16" t="n">
+      <c r="D17" t="n">
         <v>110801000000</v>
       </c>
-      <c r="C16" t="n">
+      <c r="E17" t="n">
         <v>72742000000</v>
       </c>
-      <c r="D16" t="n">
+      <c r="F17" t="n">
         <v>67111000000</v>
       </c>
-      <c r="E16" t="n">
+      <c r="G17" t="n">
         <v>33534000000</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H17" t="n">
         <v>5631000000</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I17" t="n">
         <v>5163000000</v>
       </c>
-      <c r="H16" t="n">
+      <c r="J17" t="n">
         <v>10794000000</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K17" t="n">
         <v>747000000</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L17" t="n">
         <v>-638000000</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M17" t="n">
         <v>747000000</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N17" t="n">
         <v>638000000</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O17" t="n">
         <v>111439000000</v>
       </c>
-      <c r="N16" t="n">
+      <c r="P17" t="n">
         <v>-64000000</v>
       </c>
-      <c r="O16" t="n">
+      <c r="Q17" t="n">
         <v>2666000000</v>
       </c>
-      <c r="P16" t="n">
+      <c r="R17" t="n">
         <v>33579000000</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="S17" t="n">
         <v>4824000000</v>
       </c>
-      <c r="R16" t="n">
+      <c r="T17" t="n">
         <v>638000000</v>
       </c>
-      <c r="S16" t="n">
+      <c r="U17" t="n">
         <v>28755000000</v>
       </c>
-      <c r="T16" t="n">
+      <c r="V17" t="n">
         <v>29340000000</v>
       </c>
-      <c r="U16" t="n">
+      <c r="W17" t="n">
         <v>34217000000</v>
       </c>
-      <c r="V16" t="n">
+      <c r="X17" t="n">
         <v>36200000000</v>
       </c>
-      <c r="W16" t="n">
+      <c r="Y17" t="n">
         <v>28755000000</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>24689000000</v>
       </c>
-      <c r="B17" t="n">
+      <c r="D18" t="n">
         <v>64698000000</v>
       </c>
-      <c r="C17" t="n">
+      <c r="E18" t="n">
         <v>44945000000</v>
       </c>
-      <c r="D17" t="n">
+      <c r="F18" t="n">
         <v>40009000000</v>
       </c>
-      <c r="E17" t="n">
+      <c r="G18" t="n">
         <v>14775000000</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H18" t="n">
         <v>4936000000</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I18" t="n">
         <v>4978000000</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J18" t="n">
         <v>9914000000</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K18" t="n">
         <v>768000000</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L18" t="n">
         <v>-634000000</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M18" t="n">
         <v>134000000</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N18" t="n">
         <v>634000000</v>
       </c>
-      <c r="M17" t="n">
+      <c r="O18" t="n">
         <v>64698000000</v>
       </c>
-      <c r="N17" t="n">
+      <c r="P18" t="n">
         <v>-8000000</v>
       </c>
-      <c r="O17" t="n">
+      <c r="Q18" t="n">
         <v>2702000000</v>
       </c>
-      <c r="P17" t="n">
+      <c r="R18" t="n">
         <v>14901000000</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="S18" t="n">
         <v>2228000000</v>
       </c>
-      <c r="R17" t="n">
+      <c r="T18" t="n">
         <v>634000000</v>
       </c>
-      <c r="S17" t="n">
+      <c r="U18" t="n">
         <v>24689000000</v>
       </c>
-      <c r="T17" t="n">
+      <c r="V18" t="n">
         <v>12817000000</v>
       </c>
-      <c r="U17" t="n">
+      <c r="W18" t="n">
         <v>15535000000</v>
       </c>
-      <c r="V17" t="n">
+      <c r="X18" t="n">
         <v>17477000000</v>
       </c>
-      <c r="W17" t="n">
+      <c r="Y18" t="n">
         <v>12673000000</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>22680000000</v>
       </c>
-      <c r="B18" t="n">
+      <c r="D19" t="n">
         <v>58988000000</v>
       </c>
-      <c r="C18" t="n">
+      <c r="E19" t="n">
         <v>41836000000</v>
       </c>
-      <c r="D18" t="n">
+      <c r="F19" t="n">
         <v>37005000000</v>
       </c>
-      <c r="E18" t="n">
+      <c r="G19" t="n">
         <v>13091000000</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H19" t="n">
         <v>4831000000</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I19" t="n">
         <v>4758000000</v>
       </c>
-      <c r="H18" t="n">
+      <c r="J19" t="n">
         <v>9589000000</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K19" t="n">
         <v>901000000</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L19" t="n">
         <v>-697000000</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M19" t="n">
         <v>901000000</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N19" t="n">
         <v>697000000</v>
       </c>
-      <c r="M18" t="n">
+      <c r="O19" t="n">
         <v>59685000000</v>
       </c>
-      <c r="N18" t="n">
+      <c r="P19" t="n">
         <v>-158000000</v>
       </c>
-      <c r="O18" t="n">
+      <c r="Q19" t="n">
         <v>2752000000</v>
       </c>
-      <c r="P18" t="n">
+      <c r="R19" t="n">
         <v>13137000000</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="S19" t="n">
         <v>1884000000</v>
       </c>
-      <c r="R18" t="n">
+      <c r="T19" t="n">
         <v>697000000</v>
       </c>
-      <c r="S18" t="n">
+      <c r="U19" t="n">
         <v>11253000000</v>
       </c>
-      <c r="T18" t="n">
+      <c r="V19" t="n">
         <v>13492000000</v>
       </c>
-      <c r="U18" t="n">
+      <c r="W19" t="n">
         <v>13834000000</v>
       </c>
-      <c r="V18" t="n">
+      <c r="X19" t="n">
         <v>15843000000</v>
       </c>
-      <c r="W18" t="n">
+      <c r="Y19" t="n">
         <v>11253000000</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>22370000000</v>
       </c>
-      <c r="B19" t="n">
+      <c r="D20" t="n">
         <v>57556000000</v>
       </c>
-      <c r="C19" t="n">
+      <c r="E20" t="n">
         <v>40895000000</v>
       </c>
-      <c r="D19" t="n">
+      <c r="F20" t="n">
         <v>35943000000</v>
       </c>
-      <c r="E19" t="n">
+      <c r="G20" t="n">
         <v>12853000000</v>
       </c>
-      <c r="F19" t="n">
+      <c r="H20" t="n">
         <v>4952000000</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I20" t="n">
         <v>4565000000</v>
       </c>
-      <c r="H19" t="n">
+      <c r="J20" t="n">
         <v>9517000000</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K20" t="n">
         <v>1049000000</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L20" t="n">
         <v>-757000000</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M20" t="n">
         <v>1049000000</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N20" t="n">
         <v>757000000</v>
       </c>
-      <c r="M19" t="n">
+      <c r="O20" t="n">
         <v>58313000000</v>
       </c>
-      <c r="N19" t="n">
+      <c r="P20" t="n">
         <v>-10000000</v>
       </c>
-      <c r="O19" t="n">
+      <c r="Q20" t="n">
         <v>2786000000</v>
       </c>
-      <c r="P19" t="n">
+      <c r="R20" t="n">
         <v>13135000000</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="S20" t="n">
         <v>1886000000</v>
       </c>
-      <c r="R19" t="n">
+      <c r="T20" t="n">
         <v>757000000</v>
       </c>
-      <c r="S19" t="n">
+      <c r="U20" t="n">
         <v>11249000000</v>
       </c>
-      <c r="T19" t="n">
+      <c r="V20" t="n">
         <v>8878000000</v>
       </c>
-      <c r="U19" t="n">
+      <c r="W20" t="n">
         <v>13892000000</v>
       </c>
-      <c r="V19" t="n">
+      <c r="X20" t="n">
         <v>15639000000</v>
       </c>
-      <c r="W19" t="n">
+      <c r="Y20" t="n">
         <v>11249000000</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>35217000000</v>
       </c>
-      <c r="B20" t="n">
+      <c r="D21" t="n">
         <v>91034000000</v>
       </c>
-      <c r="C20" t="n">
+      <c r="E21" t="n">
         <v>61799000000</v>
       </c>
-      <c r="D20" t="n">
+      <c r="F21" t="n">
         <v>56602000000</v>
       </c>
-      <c r="E20" t="n">
+      <c r="G21" t="n">
         <v>25569000000</v>
       </c>
-      <c r="F20" t="n">
+      <c r="H21" t="n">
         <v>5197000000</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I21" t="n">
         <v>4451000000</v>
       </c>
-      <c r="H20" t="n">
+      <c r="J21" t="n">
         <v>9648000000</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K21" t="n">
         <v>1045000000</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L21" t="n">
         <v>-785000000</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M21" t="n">
         <v>1045000000</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N21" t="n">
         <v>785000000</v>
       </c>
-      <c r="M20" t="n">
+      <c r="O21" t="n">
         <v>91819000000</v>
       </c>
-      <c r="N20" t="n">
+      <c r="P21" t="n">
         <v>89000000</v>
       </c>
-      <c r="O20" t="n">
+      <c r="Q21" t="n">
         <v>2816000000</v>
       </c>
-      <c r="P20" t="n">
+      <c r="R21" t="n">
         <v>25918000000</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="S21" t="n">
         <v>3682000000</v>
       </c>
-      <c r="R20" t="n">
+      <c r="T21" t="n">
         <v>785000000</v>
       </c>
-      <c r="S20" t="n">
+      <c r="U21" t="n">
         <v>22236000000</v>
       </c>
-      <c r="T20" t="n">
+      <c r="V21" t="n">
         <v>22266000000</v>
       </c>
-      <c r="U20" t="n">
+      <c r="W21" t="n">
         <v>26703000000</v>
       </c>
-      <c r="V20" t="n">
+      <c r="X21" t="n">
         <v>28385000000</v>
       </c>
-      <c r="W20" t="n">
+      <c r="Y21" t="n">
         <v>22236000000</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2019-09-30</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>24313000000</v>
       </c>
-      <c r="B21" t="n">
+      <c r="D22" t="n">
         <v>64040000000</v>
       </c>
-      <c r="C21" t="n">
+      <c r="E22" t="n">
         <v>44305000000</v>
       </c>
-      <c r="D21" t="n">
+      <c r="F22" t="n">
         <v>39727000000</v>
       </c>
-      <c r="E21" t="n">
+      <c r="G22" t="n">
         <v>15625000000</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H22" t="n">
         <v>4578000000</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I22" t="n">
         <v>4110000000</v>
       </c>
-      <c r="H21" t="n">
+      <c r="J22" t="n">
         <v>8688000000</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K22" t="n">
         <v>1106000000</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L22" t="n">
         <v>-810000000</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M22" t="n">
         <v>1106000000</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N22" t="n">
         <v>810000000</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O22" t="n">
         <v>64040000000</v>
       </c>
-      <c r="N21" t="n">
+      <c r="P22" t="n">
         <v>206000000</v>
       </c>
-      <c r="O21" t="n">
+      <c r="Q22" t="n">
         <v>3179000000</v>
       </c>
-      <c r="P21" t="n">
+      <c r="R22" t="n">
         <v>16127000000</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="S22" t="n">
         <v>2441000000</v>
       </c>
-      <c r="R21" t="n">
+      <c r="T22" t="n">
         <v>810000000</v>
       </c>
-      <c r="S21" t="n">
+      <c r="U22" t="n">
         <v>24313000000</v>
       </c>
-      <c r="T21" t="n">
+      <c r="V22" t="n">
         <v>13741000000</v>
       </c>
-      <c r="U21" t="n">
+      <c r="W22" t="n">
         <v>16937000000</v>
       </c>
-      <c r="V21" t="n">
+      <c r="X22" t="n">
         <v>18804000000</v>
       </c>
-      <c r="W21" t="n">
+      <c r="Y22" t="n">
         <v>13686000000</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2019-06-30</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>20227000000</v>
       </c>
-      <c r="B22" t="n">
+      <c r="D23" t="n">
         <v>52943000000</v>
       </c>
-      <c r="C22" t="n">
+      <c r="E23" t="n">
         <v>38008000000</v>
       </c>
-      <c r="D22" t="n">
+      <c r="F23" t="n">
         <v>33582000000</v>
       </c>
-      <c r="E22" t="n">
+      <c r="G23" t="n">
         <v>11544000000</v>
       </c>
-      <c r="F22" t="n">
+      <c r="H23" t="n">
         <v>4426000000</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I23" t="n">
         <v>4257000000</v>
       </c>
-      <c r="H22" t="n">
+      <c r="J23" t="n">
         <v>8683000000</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K23" t="n">
         <v>1190000000</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L23" t="n">
         <v>-866000000</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M23" t="n">
         <v>1190000000</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N23" t="n">
         <v>866000000</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O23" t="n">
         <v>53809000000</v>
       </c>
-      <c r="N22" t="n">
+      <c r="P23" t="n">
         <v>43000000</v>
       </c>
-      <c r="O22" t="n">
+      <c r="Q23" t="n">
         <v>2933000000</v>
       </c>
-      <c r="P22" t="n">
+      <c r="R23" t="n">
         <v>11911000000</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="S23" t="n">
         <v>1867000000</v>
       </c>
-      <c r="R22" t="n">
+      <c r="T23" t="n">
         <v>866000000</v>
       </c>
-      <c r="S22" t="n">
+      <c r="U23" t="n">
         <v>10044000000</v>
       </c>
-      <c r="T22" t="n">
+      <c r="V23" t="n">
         <v>10904000000</v>
       </c>
-      <c r="U22" t="n">
+      <c r="W23" t="n">
         <v>12777000000</v>
       </c>
-      <c r="V22" t="n">
+      <c r="X23" t="n">
         <v>14477000000</v>
       </c>
-      <c r="W22" t="n">
+      <c r="Y23" t="n">
         <v>10044000000</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2019-03-31</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>21821000000</v>
       </c>
-      <c r="B23" t="n">
+      <c r="D24" t="n">
         <v>57005000000</v>
       </c>
-      <c r="C23" t="n">
+      <c r="E24" t="n">
         <v>40652000000</v>
       </c>
-      <c r="D23" t="n">
+      <c r="F24" t="n">
         <v>36194000000</v>
       </c>
-      <c r="E23" t="n">
+      <c r="G24" t="n">
         <v>13415000000</v>
       </c>
-      <c r="F23" t="n">
+      <c r="H24" t="n">
         <v>4458000000</v>
       </c>
-      <c r="G23" t="n">
+      <c r="I24" t="n">
         <v>3948000000</v>
       </c>
-      <c r="H23" t="n">
+      <c r="J24" t="n">
         <v>8406000000</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K24" t="n">
         <v>1358000000</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L24" t="n">
         <v>-1010000000</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M24" t="n">
         <v>1358000000</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N24" t="n">
         <v>1010000000</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O24" t="n">
         <v>58015000000</v>
       </c>
-      <c r="N23" t="n">
+      <c r="P24" t="n">
         <v>30000000</v>
       </c>
-      <c r="O23" t="n">
+      <c r="Q24" t="n">
         <v>3040000000</v>
       </c>
-      <c r="P23" t="n">
+      <c r="R24" t="n">
         <v>13793000000</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="S24" t="n">
         <v>2232000000</v>
       </c>
-      <c r="R23" t="n">
+      <c r="T24" t="n">
         <v>1010000000</v>
       </c>
-      <c r="S23" t="n">
+      <c r="U24" t="n">
         <v>11561000000</v>
       </c>
-      <c r="T23" t="n">
+      <c r="V24" t="n">
         <v>13650000000</v>
       </c>
-      <c r="U23" t="n">
+      <c r="W24" t="n">
         <v>14803000000</v>
       </c>
-      <c r="V23" t="n">
+      <c r="X24" t="n">
         <v>16455000000</v>
       </c>
-      <c r="W23" t="n">
+      <c r="Y24" t="n">
         <v>11561000000</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2018-12-31</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>32031000000</v>
       </c>
-      <c r="B24" t="n">
+      <c r="D25" t="n">
         <v>83420000000</v>
       </c>
-      <c r="C24" t="n">
+      <c r="E25" t="n">
         <v>57062000000</v>
       </c>
-      <c r="D24" t="n">
+      <c r="F25" t="n">
         <v>52279000000</v>
       </c>
-      <c r="E24" t="n">
+      <c r="G25" t="n">
         <v>23346000000</v>
       </c>
-      <c r="F24" t="n">
+      <c r="H25" t="n">
         <v>4783000000</v>
       </c>
-      <c r="G24" t="n">
+      <c r="I25" t="n">
         <v>3902000000</v>
       </c>
-      <c r="H24" t="n">
+      <c r="J25" t="n">
         <v>8685000000</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K25" t="n">
         <v>1307000000</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L25" t="n">
         <v>-890000000</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
         <v>890000000</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O25" t="n">
         <v>84310000000</v>
       </c>
-      <c r="N24" t="n">
+      <c r="P25" t="n">
         <v>143000000</v>
       </c>
-      <c r="O24" t="n">
+      <c r="Q25" t="n">
         <v>3395000000</v>
       </c>
-      <c r="P24" t="n">
+      <c r="R25" t="n">
         <v>23906000000</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="S25" t="n">
         <v>3941000000</v>
       </c>
-      <c r="R24" t="n">
+      <c r="T25" t="n">
         <v>890000000</v>
       </c>
-      <c r="S24" t="n">
+      <c r="U25" t="n">
         <v>19965000000</v>
       </c>
-      <c r="T24" t="n">
+      <c r="V25" t="n">
         <v>19742000000</v>
       </c>
-      <c r="U24" t="n">
+      <c r="W25" t="n">
         <v>24796000000</v>
       </c>
-      <c r="V24" t="n">
+      <c r="X25" t="n">
         <v>26741000000</v>
       </c>
-      <c r="W24" t="n">
+      <c r="Y25" t="n">
         <v>19965000000</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2018-09-30</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>24084000000</v>
       </c>
-      <c r="B25" t="n">
+      <c r="D26" t="n">
         <v>62900000000</v>
       </c>
-      <c r="C25" t="n">
+      <c r="E26" t="n">
         <v>38816000000</v>
       </c>
-      <c r="D25" t="n">
+      <c r="F26" t="n">
         <v>38816000000</v>
       </c>
-      <c r="E25" t="n">
+      <c r="G26" t="n">
         <v>16118000000</v>
       </c>
-      <c r="F25" t="n">
+      <c r="H26" t="n">
         <v>4216000000</v>
       </c>
-      <c r="G25" t="n">
+      <c r="I26" t="n">
         <v>3750000000</v>
       </c>
-      <c r="H25" t="n">
+      <c r="J26" t="n">
         <v>7966000000</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K26" t="n">
         <v>1311000000</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L26" t="n">
         <v>-868000000</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>868000000</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O26" t="n">
         <v>62900000000</v>
       </c>
-      <c r="N25" t="n">
+      <c r="P26" t="n">
         <v>-140000000</v>
       </c>
-      <c r="O25" t="n">
+      <c r="Q26" t="n">
         <v>2754000000</v>
       </c>
-      <c r="P25" t="n">
+      <c r="R26" t="n">
         <v>16421000000</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="S26" t="n">
         <v>2296000000</v>
       </c>
-      <c r="R25" t="n">
+      <c r="T26" t="n">
         <v>868000000</v>
       </c>
-      <c r="S25" t="n">
+      <c r="U26" t="n">
         <v>24084000000</v>
       </c>
-      <c r="T25" t="n">
+      <c r="V26" t="n">
         <v>13782000000</v>
       </c>
-      <c r="U25" t="n">
+      <c r="W26" t="n">
         <v>17289000000</v>
       </c>
-      <c r="V25" t="n">
+      <c r="X26" t="n">
         <v>18872000000</v>
       </c>
-      <c r="W25" t="n">
+      <c r="Y26" t="n">
         <v>14125000000</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2018-06-30</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>20421000000</v>
       </c>
-      <c r="B26" t="n">
+      <c r="D27" t="n">
         <v>53265000000</v>
       </c>
-      <c r="C26" t="n">
+      <c r="E27" t="n">
         <v>32844000000</v>
       </c>
-      <c r="D26" t="n">
+      <c r="F27" t="n">
         <v>32844000000</v>
       </c>
-      <c r="E26" t="n">
+      <c r="G27" t="n">
         <v>12612000000</v>
       </c>
-      <c r="F26" t="n">
+      <c r="H27" t="n">
         <v>4108000000</v>
       </c>
-      <c r="G26" t="n">
+      <c r="I27" t="n">
         <v>3701000000</v>
       </c>
-      <c r="H26" t="n">
+      <c r="J27" t="n">
         <v>7809000000</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K27" t="n">
         <v>1418000000</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L27" t="n">
         <v>-846000000</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>846000000</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O27" t="n">
         <v>53265000000</v>
       </c>
-      <c r="N26" t="n">
+      <c r="P27" t="n">
         <v>100000000</v>
       </c>
-      <c r="O26" t="n">
+      <c r="Q27" t="n">
         <v>2665000000</v>
       </c>
-      <c r="P26" t="n">
+      <c r="R27" t="n">
         <v>13284000000</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="S27" t="n">
         <v>1765000000</v>
       </c>
-      <c r="R26" t="n">
+      <c r="T27" t="n">
         <v>846000000</v>
       </c>
-      <c r="S26" t="n">
+      <c r="U27" t="n">
         <v>11519000000</v>
       </c>
-      <c r="T26" t="n">
+      <c r="V27" t="n">
         <v>11472000000</v>
       </c>
-      <c r="U26" t="n">
+      <c r="W27" t="n">
         <v>14130000000</v>
       </c>
-      <c r="V26" t="n">
+      <c r="X27" t="n">
         <v>15277000000</v>
       </c>
-      <c r="W26" t="n">
+      <c r="Y27" t="n">
         <v>11519000000</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2018-03-31</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>23422000000</v>
       </c>
-      <c r="B27" t="n">
+      <c r="D28" t="n">
         <v>61137000000</v>
       </c>
-      <c r="C27" t="n">
+      <c r="E28" t="n">
         <v>37715000000</v>
       </c>
-      <c r="D27" t="n">
+      <c r="F28" t="n">
         <v>37715000000</v>
       </c>
-      <c r="E27" t="n">
+      <c r="G28" t="n">
         <v>15894000000</v>
       </c>
-      <c r="F27" t="n">
+      <c r="H28" t="n">
         <v>4150000000</v>
       </c>
-      <c r="G27" t="n">
+      <c r="I28" t="n">
         <v>3378000000</v>
       </c>
-      <c r="H27" t="n">
+      <c r="J28" t="n">
         <v>7528000000</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K28" t="n">
         <v>1505000000</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L28" t="n">
         <v>-792000000</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>792000000</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O28" t="n">
         <v>61137000000</v>
       </c>
-      <c r="N27" t="n">
+      <c r="P28" t="n">
         <v>-439000000</v>
       </c>
-      <c r="O27" t="n">
+      <c r="Q28" t="n">
         <v>2739000000</v>
       </c>
-      <c r="P27" t="n">
+      <c r="R28" t="n">
         <v>16168000000</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="S28" t="n">
         <v>2346000000</v>
       </c>
-      <c r="R27" t="n">
+      <c r="T28" t="n">
         <v>792000000</v>
       </c>
-      <c r="S27" t="n">
+      <c r="U28" t="n">
         <v>13822000000</v>
       </c>
-      <c r="T27" t="n">
+      <c r="V28" t="n">
         <v>11877000000</v>
       </c>
-      <c r="U27" t="n">
+      <c r="W28" t="n">
         <v>16960000000</v>
       </c>
-      <c r="V27" t="n">
+      <c r="X28" t="n">
         <v>18633000000</v>
       </c>
-      <c r="W27" t="n">
+      <c r="Y28" t="n">
         <v>13822000000</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>33912000000</v>
       </c>
-      <c r="B28" t="n">
+      <c r="D29" t="n">
         <v>88293000000</v>
       </c>
-      <c r="C28" t="n">
+      <c r="E29" t="n">
         <v>54381000000</v>
       </c>
-      <c r="D28" t="n">
+      <c r="F29" t="n">
         <v>54381000000</v>
       </c>
-      <c r="E28" t="n">
+      <c r="G29" t="n">
         <v>26274000000</v>
       </c>
-      <c r="F28" t="n">
+      <c r="H29" t="n">
         <v>4231000000</v>
       </c>
-      <c r="G28" t="n">
+      <c r="I29" t="n">
         <v>3407000000</v>
       </c>
-      <c r="H28" t="n">
+      <c r="J29" t="n">
         <v>7638000000</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K29" t="n">
         <v>1452000000</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L29" t="n">
         <v>-734000000</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>734000000</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O29" t="n">
         <v>88293000000</v>
       </c>
-      <c r="N28" t="n">
+      <c r="P29" t="n">
         <v>38000000</v>
       </c>
-      <c r="O28" t="n">
+      <c r="Q29" t="n">
         <v>2745000000</v>
       </c>
-      <c r="P28" t="n">
+      <c r="R29" t="n">
         <v>27030000000</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="S29" t="n">
         <v>6965000000</v>
       </c>
-      <c r="R28" t="n">
+      <c r="T29" t="n">
         <v>734000000</v>
       </c>
-      <c r="S28" t="n">
+      <c r="U29" t="n">
         <v>20065000000</v>
       </c>
-      <c r="T28" t="n">
+      <c r="V29" t="n">
         <v>19374000000</v>
       </c>
-      <c r="U28" t="n">
+      <c r="W29" t="n">
         <v>27764000000</v>
       </c>
-      <c r="V28" t="n">
+      <c r="X29" t="n">
         <v>29019000000</v>
       </c>
-      <c r="W28" t="n">
+      <c r="Y29" t="n">
         <v>20065000000</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2017-09-30</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>19931000000</v>
       </c>
-      <c r="B29" t="n">
+      <c r="D30" t="n">
         <v>52579000000</v>
       </c>
-      <c r="C29" t="n">
+      <c r="E30" t="n">
         <v>32648000000</v>
       </c>
-      <c r="D29" t="n">
+      <c r="F30" t="n">
         <v>32648000000</v>
       </c>
-      <c r="E29" t="n">
+      <c r="G30" t="n">
         <v>13120000000</v>
       </c>
-      <c r="F29" t="n">
+      <c r="H30" t="n">
         <v>3814000000</v>
       </c>
-      <c r="G29" t="n">
+      <c r="I30" t="n">
         <v>2997000000</v>
       </c>
-      <c r="H29" t="n">
+      <c r="J30" t="n">
         <v>6811000000</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K30" t="n">
         <v>1368000000</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L30" t="n">
         <v>-666000000</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>666000000</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>95000000</v>
       </c>
-      <c r="O29" t="n">
+      <c r="Q30" t="n">
         <v>2484000000</v>
       </c>
-      <c r="P29" t="n">
+      <c r="R30" t="n">
         <v>13917000000</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="S30" t="n">
         <v>3203000000</v>
       </c>
-      <c r="R29" t="n">
+      <c r="T30" t="n">
         <v>666000000</v>
       </c>
-      <c r="S29" t="n">
+      <c r="U30" t="n">
         <v>19931000000</v>
       </c>
-      <c r="T29" t="n">
+      <c r="V30" t="n">
         <v>11109000000</v>
       </c>
-      <c r="U29" t="n">
+      <c r="W30" t="n">
         <v>14583000000</v>
       </c>
-      <c r="V29" t="n">
+      <c r="X30" t="n">
         <v>15604000000</v>
       </c>
-      <c r="W29" t="n">
+      <c r="Y30" t="n">
         <v>10714000000</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2017-06-30</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
         <v>17488000000</v>
       </c>
-      <c r="B30" t="n">
+      <c r="D31" t="n">
         <v>45408000000</v>
       </c>
-      <c r="C30" t="n">
+      <c r="E31" t="n">
         <v>27920000000</v>
       </c>
-      <c r="D30" t="n">
+      <c r="F31" t="n">
         <v>27920000000</v>
       </c>
-      <c r="E30" t="n">
+      <c r="G31" t="n">
         <v>10768000000</v>
       </c>
-      <c r="F30" t="n">
+      <c r="H31" t="n">
         <v>3783000000</v>
       </c>
-      <c r="G30" t="n">
+      <c r="I31" t="n">
         <v>2937000000</v>
       </c>
-      <c r="H30" t="n">
+      <c r="J31" t="n">
         <v>6720000000</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K31" t="n">
         <v>1327000000</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L31" t="n">
         <v>-602000000</v>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>602000000</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
         <v>-185000000</v>
       </c>
-      <c r="O30" t="n">
+      <c r="Q31" t="n">
         <v>2354000000</v>
       </c>
-      <c r="P30" t="n">
+      <c r="R31" t="n">
         <v>11308000000</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="S31" t="n">
         <v>2591000000</v>
       </c>
-      <c r="R30" t="n">
+      <c r="T31" t="n">
         <v>602000000</v>
       </c>
-      <c r="S30" t="n">
+      <c r="U31" t="n">
         <v>17488000000</v>
       </c>
-      <c r="T30" t="n">
+      <c r="V31" t="n">
         <v>8594000000</v>
       </c>
-      <c r="U30" t="n">
+      <c r="W31" t="n">
         <v>11910000000</v>
       </c>
-      <c r="V30" t="n">
+      <c r="X31" t="n">
         <v>13122000000</v>
       </c>
-      <c r="W30" t="n">
+      <c r="Y31" t="n">
         <v>8717000000</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2017-03-31</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
         <v>20591000000</v>
       </c>
-      <c r="B31" t="n">
+      <c r="D32" t="n">
         <v>52896000000</v>
       </c>
-      <c r="C31" t="n">
+      <c r="E32" t="n">
         <v>32305000000</v>
       </c>
-      <c r="D31" t="n">
+      <c r="F32" t="n">
         <v>32305000000</v>
       </c>
-      <c r="E31" t="n">
+      <c r="G32" t="n">
         <v>14097000000</v>
       </c>
-      <c r="F31" t="n">
+      <c r="H32" t="n">
         <v>3718000000</v>
       </c>
-      <c r="G31" t="n">
+      <c r="I32" t="n">
         <v>2776000000</v>
       </c>
-      <c r="H31" t="n">
+      <c r="J32" t="n">
         <v>6494000000</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K32" t="n">
         <v>1282000000</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L32" t="n">
         <v>-530000000</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>530000000</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
         <v>-165000000</v>
       </c>
-      <c r="O31" t="n">
+      <c r="Q32" t="n">
         <v>2332000000</v>
       </c>
-      <c r="P31" t="n">
+      <c r="R32" t="n">
         <v>14684000000</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="S32" t="n">
         <v>3655000000</v>
       </c>
-      <c r="R31" t="n">
+      <c r="T32" t="n">
         <v>530000000</v>
       </c>
-      <c r="S31" t="n">
+      <c r="U32" t="n">
         <v>20591000000</v>
       </c>
-      <c r="T31" t="n">
+      <c r="V32" t="n">
         <v>10362000000</v>
       </c>
-      <c r="U31" t="n">
+      <c r="W32" t="n">
         <v>15214000000</v>
       </c>
-      <c r="V31" t="n">
+      <c r="X32" t="n">
         <v>16429000000</v>
       </c>
-      <c r="W31" t="n">
+      <c r="Y32" t="n">
         <v>11029000000</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2016-12-31</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
         <v>30176000000</v>
       </c>
-      <c r="B32" t="n">
+      <c r="D33" t="n">
         <v>78351000000</v>
       </c>
-      <c r="C32" t="n">
+      <c r="E33" t="n">
         <v>48175000000</v>
       </c>
-      <c r="D32" t="n">
+      <c r="F33" t="n">
         <v>48175000000</v>
       </c>
-      <c r="E32" t="n">
+      <c r="G33" t="n">
         <v>23359000000</v>
       </c>
-      <c r="F32" t="n">
+      <c r="H33" t="n">
         <v>3946000000</v>
       </c>
-      <c r="G32" t="n">
+      <c r="I33" t="n">
         <v>2871000000</v>
       </c>
-      <c r="H32" t="n">
+      <c r="J33" t="n">
         <v>6817000000</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K33" t="n">
         <v>1224000000</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L33" t="n">
         <v>-525000000</v>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>525000000</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>122000000</v>
       </c>
-      <c r="O32" t="n">
+      <c r="Q33" t="n">
         <v>2987000000</v>
       </c>
-      <c r="P32" t="n">
+      <c r="R33" t="n">
         <v>24180000000</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="S33" t="n">
         <v>6289000000</v>
       </c>
-      <c r="R32" t="n">
+      <c r="T33" t="n">
         <v>525000000</v>
       </c>
-      <c r="S32" t="n">
+      <c r="U33" t="n">
         <v>17891000000</v>
       </c>
-      <c r="T32" t="n">
+      <c r="V33" t="n">
         <v>17502000000</v>
       </c>
-      <c r="U32" t="n">
+      <c r="W33" t="n">
         <v>24705000000</v>
       </c>
-      <c r="V32" t="n">
+      <c r="X33" t="n">
         <v>26346000000</v>
       </c>
-      <c r="W32" t="n">
+      <c r="Y33" t="n">
         <v>17891000000</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2016-09-30</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
         <v>17813000000</v>
       </c>
-      <c r="B33" t="n">
+      <c r="D34" t="n">
         <v>47858000000</v>
       </c>
-      <c r="C33" t="n">
+      <c r="E34" t="n">
         <v>40821000000</v>
       </c>
-      <c r="D33" t="n">
+      <c r="F34" t="n">
         <v>29039000000</v>
       </c>
-      <c r="E33" t="n">
+      <c r="G34" t="n">
         <v>11761000000</v>
       </c>
-      <c r="F33" t="n">
+      <c r="H34" t="n">
         <v>3482000000</v>
       </c>
-      <c r="G33" t="n">
+      <c r="I34" t="n">
         <v>2570000000</v>
       </c>
-      <c r="H33" t="n">
+      <c r="J34" t="n">
         <v>6052000000</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K34" t="n">
         <v>1036000000</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L34" t="n">
         <v>-450000000</v>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
         <v>450000000</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
         <v>-159000000</v>
       </c>
-      <c r="O33" t="n">
+      <c r="Q34" t="n">
         <v>2548000000</v>
       </c>
-      <c r="P33" t="n">
+      <c r="R34" t="n">
         <v>12188000000</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="S34" t="n">
         <v>3174000000</v>
       </c>
-      <c r="R33" t="n">
+      <c r="T34" t="n">
         <v>450000000</v>
       </c>
-      <c r="S33" t="n">
+      <c r="U34" t="n">
         <v>17813000000</v>
       </c>
-      <c r="T33" t="n">
+      <c r="V34" t="n">
         <v>9755000000</v>
       </c>
-      <c r="U33" t="n">
+      <c r="W34" t="n">
         <v>12638000000</v>
       </c>
-      <c r="V33" t="n">
+      <c r="X34" t="n">
         <v>14309000000</v>
       </c>
-      <c r="W33" t="n">
+      <c r="Y34" t="n">
         <v>9014000000</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2016-06-30</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
         <v>16106000000</v>
       </c>
-      <c r="B34" t="n">
+      <c r="D35" t="n">
         <v>41949000000</v>
       </c>
-      <c r="C34" t="n">
+      <c r="E35" t="n">
         <v>29693000000</v>
       </c>
-      <c r="D34" t="n">
+      <c r="F35" t="n">
         <v>26252000000</v>
       </c>
-      <c r="E34" t="n">
+      <c r="G35" t="n">
         <v>10105000000</v>
       </c>
-      <c r="F34" t="n">
+      <c r="H35" t="n">
         <v>3441000000</v>
       </c>
-      <c r="G34" t="n">
+      <c r="I35" t="n">
         <v>2560000000</v>
       </c>
-      <c r="H34" t="n">
+      <c r="J35" t="n">
         <v>6001000000</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K35" t="n">
         <v>1036000000</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L35" t="n">
         <v>-409000000</v>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>409000000</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
         <v>-263000000</v>
       </c>
-      <c r="O34" t="n">
+      <c r="Q35" t="n">
         <v>2526000000</v>
       </c>
-      <c r="P34" t="n">
+      <c r="R35" t="n">
         <v>10469000000</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="S35" t="n">
         <v>2673000000</v>
       </c>
-      <c r="R34" t="n">
+      <c r="T35" t="n">
         <v>409000000</v>
       </c>
-      <c r="S34" t="n">
+      <c r="U35" t="n">
         <v>7796000000</v>
       </c>
-      <c r="T34" t="n">
+      <c r="V35" t="n">
         <v>8737000000</v>
       </c>
-      <c r="U34" t="n">
+      <c r="W35" t="n">
         <v>10878000000</v>
       </c>
-      <c r="V34" t="n">
+      <c r="X35" t="n">
         <v>12631000000</v>
       </c>
-      <c r="W34" t="n">
+      <c r="Y35" t="n">
         <v>7796000000</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2016-03-31</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
         <v>19921000000</v>
       </c>
-      <c r="B35" t="n">
+      <c r="D36" t="n">
         <v>50236000000</v>
       </c>
-      <c r="C35" t="n">
+      <c r="E36" t="n">
         <v>34059000000</v>
       </c>
-      <c r="D35" t="n">
+      <c r="F36" t="n">
         <v>30636000000</v>
       </c>
-      <c r="E35" t="n">
+      <c r="G36" t="n">
         <v>13987000000</v>
       </c>
-      <c r="F35" t="n">
+      <c r="H36" t="n">
         <v>3423000000</v>
       </c>
-      <c r="G35" t="n">
+      <c r="I36" t="n">
         <v>2511000000</v>
       </c>
-      <c r="H35" t="n">
+      <c r="J36" t="n">
         <v>5934000000</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K36" t="n">
         <v>986000000</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L36" t="n">
         <v>-321000000</v>
       </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>321000000</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>-510000000</v>
       </c>
-      <c r="O35" t="n">
+      <c r="Q36" t="n">
         <v>2477000000</v>
       </c>
-      <c r="P35" t="n">
+      <c r="R36" t="n">
         <v>14142000000</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="S36" t="n">
         <v>3626000000</v>
       </c>
-      <c r="R35" t="n">
+      <c r="T36" t="n">
         <v>321000000</v>
       </c>
-      <c r="S35" t="n">
+      <c r="U36" t="n">
         <v>10516000000</v>
       </c>
-      <c r="T35" t="n">
+      <c r="V36" t="n">
         <v>10948000000</v>
       </c>
-      <c r="U35" t="n">
+      <c r="W36" t="n">
         <v>14463000000</v>
       </c>
-      <c r="V35" t="n">
+      <c r="X36" t="n">
         <v>16464000000</v>
       </c>
-      <c r="W35" t="n">
+      <c r="Y36" t="n">
         <v>10516000000</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2015-12-31</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
         <v>30423000000</v>
       </c>
-      <c r="B36" t="n">
+      <c r="D37" t="n">
         <v>75596000000</v>
       </c>
-      <c r="C36" t="n">
+      <c r="E37" t="n">
         <v>49297000000</v>
       </c>
-      <c r="D36" t="n">
+      <c r="F37" t="n">
         <v>45449000000</v>
       </c>
-      <c r="E36" t="n">
+      <c r="G37" t="n">
         <v>24171000000</v>
       </c>
-      <c r="F36" t="n">
+      <c r="H37" t="n">
         <v>3848000000</v>
       </c>
-      <c r="G36" t="n">
+      <c r="I37" t="n">
         <v>2404000000</v>
       </c>
-      <c r="H36" t="n">
+      <c r="J37" t="n">
         <v>6252000000</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K37" t="n">
         <v>941000000</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L37" t="n">
         <v>-276000000</v>
       </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>276000000</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>-263000000</v>
       </c>
-      <c r="O36" t="n">
+      <c r="Q37" t="n">
         <v>2954000000</v>
       </c>
-      <c r="P36" t="n">
+      <c r="R37" t="n">
         <v>24573000000</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="S37" t="n">
         <v>6212000000</v>
       </c>
-      <c r="R36" t="n">
+      <c r="T37" t="n">
         <v>276000000</v>
       </c>
-      <c r="S36" t="n">
+      <c r="U37" t="n">
         <v>18361000000</v>
       </c>
-      <c r="T36" t="n">
+      <c r="V37" t="n">
         <v>17226000000</v>
       </c>
-      <c r="U36" t="n">
+      <c r="W37" t="n">
         <v>24849000000</v>
       </c>
-      <c r="V36" t="n">
+      <c r="X37" t="n">
         <v>27125000000</v>
       </c>
-      <c r="W36" t="n">
+      <c r="Y37" t="n">
         <v>18361000000</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2015-09-30</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
         <v>20548000000</v>
       </c>
-      <c r="B37" t="n">
+      <c r="D38" t="n">
         <v>51501000000</v>
       </c>
-      <c r="C37" t="n">
+      <c r="E38" t="n">
         <v>43858000000</v>
       </c>
-      <c r="D37" t="n">
+      <c r="F38" t="n">
         <v>30953000000</v>
       </c>
-      <c r="E37" t="n">
+      <c r="G38" t="n">
         <v>14623000000</v>
       </c>
-      <c r="F37" t="n">
+      <c r="H38" t="n">
         <v>3705000000</v>
       </c>
-      <c r="G37" t="n">
+      <c r="I38" t="n">
         <v>2220000000</v>
       </c>
-      <c r="H37" t="n">
+      <c r="J38" t="n">
         <v>5925000000</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K38" t="n">
         <v>826000000</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L38" t="n">
         <v>-238000000</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>238000000</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
         <v>-149000000</v>
       </c>
-      <c r="O37" t="n">
+      <c r="Q38" t="n">
         <v>3119000000</v>
       </c>
-      <c r="P37" t="n">
+      <c r="R38" t="n">
         <v>15062000000</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="S38" t="n">
         <v>3938000000</v>
       </c>
-      <c r="R37" t="n">
+      <c r="T38" t="n">
         <v>238000000</v>
       </c>
-      <c r="S37" t="n">
+      <c r="U38" t="n">
         <v>20548000000</v>
       </c>
-      <c r="T37" t="n">
+      <c r="V38" t="n">
         <v>9681000000</v>
       </c>
-      <c r="U37" t="n">
+      <c r="W38" t="n">
         <v>15300000000</v>
       </c>
-      <c r="V37" t="n">
+      <c r="X38" t="n">
         <v>17742000000</v>
       </c>
-      <c r="W37" t="n">
+      <c r="Y38" t="n">
         <v>11124000000</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2015-06-30</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
         <v>19681000000</v>
       </c>
-      <c r="B38" t="n">
+      <c r="D39" t="n">
         <v>49404000000</v>
       </c>
-      <c r="C38" t="n">
+      <c r="E39" t="n">
         <v>33488000000</v>
       </c>
-      <c r="D38" t="n">
+      <c r="F39" t="n">
         <v>29924000000</v>
       </c>
-      <c r="E38" t="n">
+      <c r="G39" t="n">
         <v>14083000000</v>
       </c>
-      <c r="F38" t="n">
+      <c r="H39" t="n">
         <v>3564000000</v>
       </c>
-      <c r="G38" t="n">
+      <c r="I39" t="n">
         <v>2034000000</v>
       </c>
-      <c r="H38" t="n">
+      <c r="J39" t="n">
         <v>5598000000</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K39" t="n">
         <v>766000000</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L39" t="n">
         <v>-201000000</v>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>201000000</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>-175000000</v>
       </c>
-      <c r="O38" t="n">
+      <c r="Q39" t="n">
         <v>3084000000</v>
       </c>
-      <c r="P38" t="n">
+      <c r="R39" t="n">
         <v>14473000000</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="S39" t="n">
         <v>3796000000</v>
       </c>
-      <c r="R38" t="n">
+      <c r="T39" t="n">
         <v>201000000</v>
       </c>
-      <c r="S38" t="n">
+      <c r="U39" t="n">
         <v>10677000000</v>
       </c>
-      <c r="T38" t="n">
+      <c r="V39" t="n">
         <v>9065000000</v>
       </c>
-      <c r="U38" t="n">
+      <c r="W39" t="n">
         <v>14674000000</v>
       </c>
-      <c r="V38" t="n">
+      <c r="X39" t="n">
         <v>17167000000</v>
       </c>
-      <c r="W38" t="n">
+      <c r="Y39" t="n">
         <v>10677000000</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2015-03-31</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
         <v>23656000000</v>
       </c>
-      <c r="B39" t="n">
+      <c r="D40" t="n">
         <v>57847000000</v>
       </c>
-      <c r="C39" t="n">
+      <c r="E40" t="n">
         <v>37814000000</v>
       </c>
-      <c r="D39" t="n">
+      <c r="F40" t="n">
         <v>34354000000</v>
       </c>
-      <c r="E39" t="n">
+      <c r="G40" t="n">
         <v>18278000000</v>
       </c>
-      <c r="F39" t="n">
+      <c r="H40" t="n">
         <v>3460000000</v>
       </c>
-      <c r="G39" t="n">
+      <c r="I40" t="n">
         <v>1918000000</v>
       </c>
-      <c r="H39" t="n">
+      <c r="J40" t="n">
         <v>5378000000</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K40" t="n">
         <v>675000000</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L40" t="n">
         <v>-163000000</v>
       </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
         <v>163000000</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
         <v>-226000000</v>
       </c>
-      <c r="O39" t="n">
+      <c r="Q40" t="n">
         <v>2479000000</v>
       </c>
-      <c r="P39" t="n">
+      <c r="R40" t="n">
         <v>18564000000</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="S40" t="n">
         <v>4995000000</v>
       </c>
-      <c r="R39" t="n">
+      <c r="T40" t="n">
         <v>163000000</v>
       </c>
-      <c r="S39" t="n">
+      <c r="U40" t="n">
         <v>13569000000</v>
       </c>
-      <c r="T39" t="n">
+      <c r="V40" t="n">
         <v>14316000000</v>
       </c>
-      <c r="U39" t="n">
+      <c r="W40" t="n">
         <v>18727000000</v>
       </c>
-      <c r="V39" t="n">
+      <c r="X40" t="n">
         <v>20757000000</v>
       </c>
-      <c r="W39" t="n">
+      <c r="Y40" t="n">
         <v>13569000000</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2014-12-31</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
         <v>29741000000</v>
       </c>
-      <c r="B40" t="n">
+      <c r="D41" t="n">
         <v>74468000000</v>
       </c>
-      <c r="C40" t="n">
+      <c r="E41" t="n">
         <v>48458000000</v>
       </c>
-      <c r="D40" t="n">
+      <c r="F41" t="n">
         <v>44858000000</v>
       </c>
-      <c r="E40" t="n">
+      <c r="G41" t="n">
         <v>24246000000</v>
       </c>
-      <c r="F40" t="n">
+      <c r="H41" t="n">
         <v>3600000000</v>
       </c>
-      <c r="G40" t="n">
+      <c r="I41" t="n">
         <v>1895000000</v>
       </c>
-      <c r="H40" t="n">
+      <c r="J41" t="n">
         <v>5495000000</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K41" t="n">
         <v>654000000</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L41" t="n">
         <v>-131000000</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>131000000</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>-353000000</v>
       </c>
-      <c r="O40" t="n">
+      <c r="Q41" t="n">
         <v>2575000000</v>
       </c>
-      <c r="P40" t="n">
+      <c r="R41" t="n">
         <v>24416000000</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="S41" t="n">
         <v>6392000000</v>
       </c>
-      <c r="R40" t="n">
+      <c r="T41" t="n">
         <v>131000000</v>
       </c>
-      <c r="S40" t="n">
+      <c r="U41" t="n">
         <v>18024000000</v>
       </c>
-      <c r="T40" t="n">
+      <c r="V41" t="n">
         <v>18905000000</v>
       </c>
-      <c r="U40" t="n">
+      <c r="W41" t="n">
         <v>24547000000</v>
       </c>
-      <c r="V40" t="n">
+      <c r="X41" t="n">
         <v>26821000000</v>
       </c>
-      <c r="W40" t="n">
+      <c r="Y41" t="n">
         <v>18024000000</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2014-09-30</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
         <v>16009000000</v>
       </c>
-      <c r="B41" t="n">
+      <c r="D42" t="n">
         <v>42123000000</v>
       </c>
-      <c r="C41" t="n">
+      <c r="E42" t="n">
         <v>36172000000</v>
       </c>
-      <c r="D41" t="n">
+      <c r="F42" t="n">
         <v>26114000000</v>
       </c>
-      <c r="E41" t="n">
+      <c r="G42" t="n">
         <v>11165000000</v>
       </c>
-      <c r="F41" t="n">
+      <c r="H42" t="n">
         <v>3158000000</v>
       </c>
-      <c r="G41" t="n">
+      <c r="I42" t="n">
         <v>1686000000</v>
       </c>
-      <c r="H41" t="n">
+      <c r="J42" t="n">
         <v>4844000000</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K42" t="n">
         <v>519000000</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L42" t="n">
         <v>-115000000</v>
       </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>115000000</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>-97000000</v>
       </c>
-      <c r="O41" t="n">
+      <c r="Q42" t="n">
         <v>1969000000</v>
       </c>
-      <c r="P41" t="n">
+      <c r="R42" t="n">
         <v>11472000000</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="S42" t="n">
         <v>3005000000</v>
       </c>
-      <c r="R41" t="n">
+      <c r="T42" t="n">
         <v>115000000</v>
       </c>
-      <c r="S41" t="n">
+      <c r="U42" t="n">
         <v>16009000000</v>
       </c>
-      <c r="T41" t="n">
+      <c r="V42" t="n">
         <v>9463000000</v>
       </c>
-      <c r="U41" t="n">
+      <c r="W42" t="n">
         <v>11587000000</v>
       </c>
-      <c r="V41" t="n">
+      <c r="X42" t="n">
         <v>13134000000</v>
       </c>
-      <c r="W41" t="n">
+      <c r="Y42" t="n">
         <v>8467000000</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2014-06-30</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
         <v>14735000000</v>
       </c>
-      <c r="B42" t="n">
+      <c r="D43" t="n">
         <v>37332000000</v>
       </c>
-      <c r="C42" t="n">
+      <c r="E43" t="n">
         <v>25547000000</v>
       </c>
-      <c r="D42" t="n">
+      <c r="F43" t="n">
         <v>22697000000</v>
       </c>
-      <c r="E42" t="n">
+      <c r="G43" t="n">
         <v>10282000000</v>
       </c>
-      <c r="F42" t="n">
+      <c r="H43" t="n">
         <v>2850000000</v>
       </c>
-      <c r="G42" t="n">
+      <c r="I43" t="n">
         <v>1603000000</v>
       </c>
-      <c r="H42" t="n">
+      <c r="J43" t="n">
         <v>4453000000</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K43" t="n">
         <v>439000000</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L43" t="n">
         <v>-100000000</v>
       </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
         <v>100000000</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>-137000000</v>
       </c>
-      <c r="O42" t="n">
+      <c r="Q43" t="n">
         <v>1946000000</v>
       </c>
-      <c r="P42" t="n">
+      <c r="R43" t="n">
         <v>10484000000</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="S43" t="n">
         <v>2736000000</v>
       </c>
-      <c r="R42" t="n">
+      <c r="T43" t="n">
         <v>100000000</v>
       </c>
-      <c r="S42" t="n">
+      <c r="U43" t="n">
         <v>7748000000</v>
       </c>
-      <c r="T42" t="n">
+      <c r="V43" t="n">
         <v>8085000000</v>
       </c>
-      <c r="U42" t="n">
+      <c r="W43" t="n">
         <v>10584000000</v>
       </c>
-      <c r="V42" t="n">
+      <c r="X43" t="n">
         <v>12228000000</v>
       </c>
-      <c r="W42" t="n">
+      <c r="Y43" t="n">
         <v>7748000000</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2014-03-31</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
         <v>17947000000</v>
       </c>
-      <c r="B43" t="n">
+      <c r="D44" t="n">
         <v>45561000000</v>
       </c>
-      <c r="C43" t="n">
+      <c r="E44" t="n">
         <v>30631000000</v>
       </c>
-      <c r="D43" t="n">
+      <c r="F44" t="n">
         <v>27699000000</v>
       </c>
-      <c r="E43" t="n">
+      <c r="G44" t="n">
         <v>13593000000</v>
       </c>
-      <c r="F43" t="n">
+      <c r="H44" t="n">
         <v>2932000000</v>
       </c>
-      <c r="G43" t="n">
+      <c r="I44" t="n">
         <v>1422000000</v>
       </c>
-      <c r="H43" t="n">
+      <c r="J44" t="n">
         <v>4354000000</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K44" t="n">
         <v>410000000</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L44" t="n">
         <v>-85000000</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>85000000</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>-100000000</v>
       </c>
-      <c r="O43" t="n">
+      <c r="Q44" t="n">
         <v>1887000000</v>
       </c>
-      <c r="P43" t="n">
+      <c r="R44" t="n">
         <v>13818000000</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="S44" t="n">
         <v>3595000000</v>
       </c>
-      <c r="R43" t="n">
+      <c r="T44" t="n">
         <v>85000000</v>
       </c>
-      <c r="S43" t="n">
+      <c r="U44" t="n">
         <v>10223000000</v>
       </c>
-      <c r="T43" t="n">
+      <c r="V44" t="n">
         <v>10278000000</v>
       </c>
-      <c r="U43" t="n">
+      <c r="W44" t="n">
         <v>13903000000</v>
       </c>
-      <c r="V43" t="n">
+      <c r="X44" t="n">
         <v>15480000000</v>
       </c>
-      <c r="W43" t="n">
+      <c r="Y44" t="n">
         <v>10223000000</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2013-12-31</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
         <v>21846000000</v>
       </c>
-      <c r="B44" t="n">
+      <c r="D45" t="n">
         <v>57510000000</v>
       </c>
-      <c r="C44" t="n">
+      <c r="E45" t="n">
         <v>38801000000</v>
       </c>
-      <c r="D44" t="n">
+      <c r="F45" t="n">
         <v>35748000000</v>
       </c>
-      <c r="E44" t="n">
+      <c r="G45" t="n">
         <v>17463000000</v>
       </c>
-      <c r="F44" t="n">
+      <c r="H45" t="n">
         <v>3053000000</v>
       </c>
-      <c r="G44" t="n">
+      <c r="I45" t="n">
         <v>1330000000</v>
       </c>
-      <c r="H44" t="n">
+      <c r="J45" t="n">
         <v>4383000000</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K45" t="n">
         <v>427000000</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L45" t="n">
         <v>-84000000</v>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>84000000</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>-97000000</v>
       </c>
-      <c r="O44" t="n">
+      <c r="Q45" t="n">
         <v>2144000000</v>
       </c>
-      <c r="P44" t="n">
+      <c r="R45" t="n">
         <v>17709000000</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="S45" t="n">
         <v>4637000000</v>
       </c>
-      <c r="R44" t="n">
+      <c r="T45" t="n">
         <v>84000000</v>
       </c>
-      <c r="S44" t="n">
+      <c r="U45" t="n">
         <v>13072000000</v>
       </c>
-      <c r="T44" t="n">
+      <c r="V45" t="n">
         <v>13237000000</v>
       </c>
-      <c r="U44" t="n">
+      <c r="W45" t="n">
         <v>17793000000</v>
       </c>
-      <c r="V44" t="n">
+      <c r="X45" t="n">
         <v>19607000000</v>
       </c>
-      <c r="W44" t="n">
+      <c r="Y45" t="n">
         <v>13072000000</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2013-09-30</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
         <v>13871000000</v>
       </c>
-      <c r="B45" t="n">
+      <c r="D46" t="n">
         <v>37472000000</v>
       </c>
-      <c r="C45" t="n">
+      <c r="E46" t="n">
         <v>32074000000</v>
       </c>
-      <c r="D45" t="n">
+      <c r="F46" t="n">
         <v>23601000000</v>
       </c>
-      <c r="E45" t="n">
+      <c r="G46" t="n">
         <v>10030000000</v>
       </c>
-      <c r="F45" t="n">
+      <c r="H46" t="n">
         <v>2673000000</v>
       </c>
-      <c r="G45" t="n">
+      <c r="I46" t="n">
         <v>1168000000</v>
       </c>
-      <c r="H45" t="n">
+      <c r="J46" t="n">
         <v>3841000000</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K46" t="n">
         <v>390000000</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L46" t="n">
         <v>-83000000</v>
       </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>83000000</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
         <v>-194000000</v>
       </c>
-      <c r="O45" t="n">
+      <c r="Q46" t="n">
         <v>1783000000</v>
       </c>
-      <c r="P45" t="n">
+      <c r="R46" t="n">
         <v>10143000000</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="S46" t="n">
         <v>2631000000</v>
       </c>
-      <c r="R45" t="n">
+      <c r="T46" t="n">
         <v>83000000</v>
       </c>
-      <c r="S45" t="n">
+      <c r="U46" t="n">
         <v>13871000000</v>
       </c>
-      <c r="T45" t="n">
+      <c r="V46" t="n">
         <v>7275000000</v>
       </c>
-      <c r="U45" t="n">
+      <c r="W46" t="n">
         <v>10226000000</v>
       </c>
-      <c r="V45" t="n">
+      <c r="X46" t="n">
         <v>11813000000</v>
       </c>
-      <c r="W45" t="n">
+      <c r="Y46" t="n">
         <v>7512000000</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2013-06-30</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
         <v>13024000000</v>
       </c>
-      <c r="B46" t="n">
+      <c r="D47" t="n">
         <v>35270000000</v>
       </c>
-      <c r="C46" t="n">
+      <c r="E47" t="n">
         <v>24944000000</v>
       </c>
-      <c r="D46" t="n">
+      <c r="F47" t="n">
         <v>22299000000</v>
       </c>
-      <c r="E46" t="n">
+      <c r="G47" t="n">
         <v>9201000000</v>
       </c>
-      <c r="F46" t="n">
+      <c r="H47" t="n">
         <v>2645000000</v>
       </c>
-      <c r="G46" t="n">
+      <c r="I47" t="n">
         <v>1178000000</v>
       </c>
-      <c r="H46" t="n">
+      <c r="J47" t="n">
         <v>3823000000</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K47" t="n">
         <v>385000000</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L47" t="n">
         <v>-53000000</v>
       </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
         <v>53000000</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
         <v>-98000000</v>
       </c>
-      <c r="O46" t="n">
+      <c r="Q47" t="n">
         <v>1694000000</v>
       </c>
-      <c r="P46" t="n">
+      <c r="R47" t="n">
         <v>9435000000</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="S47" t="n">
         <v>2535000000</v>
       </c>
-      <c r="R46" t="n">
+      <c r="T47" t="n">
         <v>53000000</v>
       </c>
-      <c r="S46" t="n">
+      <c r="U47" t="n">
         <v>6900000000</v>
       </c>
-      <c r="T46" t="n">
+      <c r="V47" t="n">
         <v>5702000000</v>
       </c>
-      <c r="U46" t="n">
+      <c r="W47" t="n">
         <v>9488000000</v>
       </c>
-      <c r="V46" t="n">
+      <c r="X47" t="n">
         <v>10895000000</v>
       </c>
-      <c r="W46" t="n">
+      <c r="Y47" t="n">
         <v>6900000000</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2013-03-31</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
         <v>16349000000</v>
       </c>
-      <c r="B47" t="n">
+      <c r="D48" t="n">
         <v>43603000000</v>
       </c>
-      <c r="C47" t="n">
+      <c r="E48" t="n">
         <v>29926000000</v>
       </c>
-      <c r="D47" t="n">
+      <c r="F48" t="n">
         <v>27254000000</v>
       </c>
-      <c r="E47" t="n">
+      <c r="G48" t="n">
         <v>12558000000</v>
       </c>
-      <c r="F47" t="n">
+      <c r="H48" t="n">
         <v>2672000000</v>
       </c>
-      <c r="G47" t="n">
+      <c r="I48" t="n">
         <v>1119000000</v>
       </c>
-      <c r="H47" t="n">
+      <c r="J48" t="n">
         <v>3791000000</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K48" t="n">
         <v>420000000</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
         <v>-73000000</v>
       </c>
-      <c r="O47" t="n">
+      <c r="Q48" t="n">
         <v>1692000000</v>
       </c>
-      <c r="P47" t="n">
+      <c r="R48" t="n">
         <v>12905000000</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="S48" t="n">
         <v>3358000000</v>
       </c>
-      <c r="R47" t="n">
-        <v>0</v>
-      </c>
-      <c r="S47" t="n">
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
         <v>9547000000</v>
       </c>
-      <c r="T47" t="n">
+      <c r="V48" t="n">
         <v>9899000000</v>
       </c>
-      <c r="U47" t="n">
+      <c r="W48" t="n">
         <v>12905000000</v>
       </c>
-      <c r="V47" t="n">
+      <c r="X48" t="n">
         <v>14250000000</v>
       </c>
-      <c r="W47" t="n">
+      <c r="Y48" t="n">
         <v>9547000000</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2012-12-31</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
         <v>21060000000</v>
       </c>
-      <c r="B48" t="n">
+      <c r="D49" t="n">
         <v>54512000000</v>
       </c>
-      <c r="C48" t="n">
+      <c r="E49" t="n">
         <v>36292000000</v>
       </c>
-      <c r="D48" t="n">
+      <c r="F49" t="n">
         <v>33452000000</v>
       </c>
-      <c r="E48" t="n">
+      <c r="G49" t="n">
         <v>17210000000</v>
       </c>
-      <c r="F48" t="n">
+      <c r="H49" t="n">
         <v>2840000000</v>
       </c>
-      <c r="G48" t="n">
+      <c r="I49" t="n">
         <v>1010000000</v>
       </c>
-      <c r="H48" t="n">
+      <c r="J49" t="n">
         <v>3850000000</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K49" t="n">
         <v>421000000</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
         <v>41000000</v>
       </c>
-      <c r="O48" t="n">
+      <c r="Q49" t="n">
         <v>1588000000</v>
       </c>
-      <c r="P48" t="n">
+      <c r="R49" t="n">
         <v>17672000000</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="S49" t="n">
         <v>4594000000</v>
       </c>
-      <c r="R48" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" t="n">
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
         <v>13078000000</v>
       </c>
-      <c r="T48" t="n">
+      <c r="V49" t="n">
         <v>13191000000</v>
       </c>
-      <c r="U48" t="n">
+      <c r="W49" t="n">
         <v>17672000000</v>
       </c>
-      <c r="V48" t="n">
+      <c r="X49" t="n">
         <v>18798000000</v>
       </c>
-      <c r="W48" t="n">
+      <c r="Y49" t="n">
         <v>13078000000</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2012-09-30</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
         <v>14401000000</v>
       </c>
-      <c r="B49" t="n">
+      <c r="D50" t="n">
         <v>35966000000</v>
       </c>
-      <c r="C49" t="n">
+      <c r="E50" t="n">
         <v>26716000000</v>
       </c>
-      <c r="D49" t="n">
+      <c r="F50" t="n">
         <v>21565000000</v>
       </c>
-      <c r="E49" t="n">
+      <c r="G50" t="n">
         <v>10944000000</v>
       </c>
-      <c r="F49" t="n">
+      <c r="H50" t="n">
         <v>2551000000</v>
       </c>
-      <c r="G49" t="n">
+      <c r="I50" t="n">
         <v>906000000</v>
       </c>
-      <c r="H49" t="n">
+      <c r="J50" t="n">
         <v>3457000000</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
         <v>51000000</v>
       </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
         <v>-51000000</v>
       </c>
-      <c r="O49" t="n">
+      <c r="Q50" t="n">
         <v>981000000</v>
       </c>
-      <c r="P49" t="n">
+      <c r="R50" t="n">
         <v>10893000000</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="S50" t="n">
         <v>2670000000</v>
       </c>
-      <c r="R49" t="n">
-        <v>0</v>
-      </c>
-      <c r="S49" t="n">
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
         <v>14401000000</v>
       </c>
-      <c r="T49" t="n">
+      <c r="V50" t="n">
         <v>8190000000</v>
       </c>
-      <c r="U49" t="n">
+      <c r="W50" t="n">
         <v>10944000000</v>
       </c>
-      <c r="V49" t="n">
+      <c r="X50" t="n">
         <v>11925000000</v>
       </c>
-      <c r="W49" t="n">
+      <c r="Y50" t="n">
         <v>8223000000</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2012-06-30</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
         <v>14994000000</v>
       </c>
-      <c r="B50" t="n">
+      <c r="D51" t="n">
         <v>35023000000</v>
       </c>
-      <c r="C50" t="n">
+      <c r="E51" t="n">
         <v>22574000000</v>
       </c>
-      <c r="D50" t="n">
+      <c r="F51" t="n">
         <v>20029000000</v>
       </c>
-      <c r="E50" t="n">
+      <c r="G51" t="n">
         <v>11573000000</v>
       </c>
-      <c r="F50" t="n">
+      <c r="H51" t="n">
         <v>2545000000</v>
       </c>
-      <c r="G50" t="n">
+      <c r="I51" t="n">
         <v>876000000</v>
       </c>
-      <c r="H50" t="n">
+      <c r="J51" t="n">
         <v>3421000000</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
         <v>288000000</v>
       </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
         <v>288000000</v>
       </c>
-      <c r="O50" t="n">
+      <c r="Q51" t="n">
         <v>835000000</v>
       </c>
-      <c r="P50" t="n">
+      <c r="R51" t="n">
         <v>11861000000</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="S51" t="n">
         <v>3037000000</v>
       </c>
-      <c r="R50" t="n">
-        <v>0</v>
-      </c>
-      <c r="S50" t="n">
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
         <v>8824000000</v>
       </c>
-      <c r="T50" t="n">
+      <c r="V51" t="n">
         <v>8832000000</v>
       </c>
-      <c r="U50" t="n">
+      <c r="W51" t="n">
         <v>11573000000</v>
       </c>
-      <c r="V50" t="n">
+      <c r="X51" t="n">
         <v>12408000000</v>
       </c>
-      <c r="W50" t="n">
+      <c r="Y51" t="n">
         <v>8824000000</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2012-03-31</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
         <v>18564000000</v>
       </c>
-      <c r="B51" t="n">
+      <c r="D52" t="n">
         <v>39186000000</v>
       </c>
-      <c r="C51" t="n">
+      <c r="E52" t="n">
         <v>22961000000</v>
       </c>
-      <c r="D51" t="n">
+      <c r="F52" t="n">
         <v>20622000000</v>
       </c>
-      <c r="E51" t="n">
+      <c r="G52" t="n">
         <v>15384000000</v>
       </c>
-      <c r="F51" t="n">
+      <c r="H52" t="n">
         <v>2339000000</v>
       </c>
-      <c r="G51" t="n">
+      <c r="I52" t="n">
         <v>841000000</v>
       </c>
-      <c r="H51" t="n">
+      <c r="J52" t="n">
         <v>3180000000</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
         <v>148000000</v>
       </c>
-      <c r="M51" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" t="n">
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
         <v>148000000</v>
       </c>
-      <c r="O51" t="n">
+      <c r="Q52" t="n">
         <v>740000000</v>
       </c>
-      <c r="P51" t="n">
+      <c r="R52" t="n">
         <v>15532000000</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="S52" t="n">
         <v>3910000000</v>
       </c>
-      <c r="R51" t="n">
-        <v>0</v>
-      </c>
-      <c r="S51" t="n">
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
         <v>11622000000</v>
       </c>
-      <c r="T51" t="n">
+      <c r="V52" t="n">
         <v>11762000000</v>
       </c>
-      <c r="U51" t="n">
+      <c r="W52" t="n">
         <v>15384000000</v>
       </c>
-      <c r="V51" t="n">
+      <c r="X52" t="n">
         <v>16124000000</v>
       </c>
-      <c r="W51" t="n">
+      <c r="Y52" t="n">
         <v>11622000000</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2011-12-31</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
         <v>20703000000</v>
       </c>
-      <c r="B52" t="n">
+      <c r="D53" t="n">
         <v>46333000000</v>
       </c>
-      <c r="C52" t="n">
+      <c r="E53" t="n">
         <v>28235000000</v>
       </c>
-      <c r="D52" t="n">
+      <c r="F53" t="n">
         <v>25630000000</v>
       </c>
-      <c r="E52" t="n">
+      <c r="G53" t="n">
         <v>17340000000</v>
       </c>
-      <c r="F52" t="n">
+      <c r="H53" t="n">
         <v>2605000000</v>
       </c>
-      <c r="G52" t="n">
+      <c r="I53" t="n">
         <v>758000000</v>
       </c>
-      <c r="H52" t="n">
+      <c r="J53" t="n">
         <v>3363000000</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
         <v>137000000</v>
       </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
         <v>137000000</v>
       </c>
-      <c r="O52" t="n">
+      <c r="Q53" t="n">
         <v>721000000</v>
       </c>
-      <c r="P52" t="n">
+      <c r="R53" t="n">
         <v>17477000000</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="S53" t="n">
         <v>4413000000</v>
       </c>
-      <c r="R52" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52" t="n">
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
         <v>13064000000</v>
       </c>
-      <c r="T52" t="n">
+      <c r="V53" t="n">
         <v>13005000000</v>
       </c>
-      <c r="U52" t="n">
+      <c r="W53" t="n">
         <v>17340000000</v>
       </c>
-      <c r="V52" t="n">
+      <c r="X53" t="n">
         <v>18061000000</v>
       </c>
-      <c r="W52" t="n">
+      <c r="Y53" t="n">
         <v>13064000000</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2011-09-30</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
         <v>11380000000</v>
       </c>
-      <c r="B53" t="n">
+      <c r="D54" t="n">
         <v>28270000000</v>
       </c>
-      <c r="C53" t="n">
+      <c r="E54" t="n">
         <v>20515000000</v>
       </c>
-      <c r="D53" t="n">
+      <c r="F54" t="n">
         <v>16890000000</v>
       </c>
-      <c r="E53" t="n">
+      <c r="G54" t="n">
         <v>8710000000</v>
       </c>
-      <c r="F53" t="n">
+      <c r="H54" t="n">
         <v>2025000000</v>
       </c>
-      <c r="G53" t="n">
+      <c r="I54" t="n">
         <v>645000000</v>
       </c>
-      <c r="H53" t="n">
+      <c r="J54" t="n">
         <v>2670000000</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
         <v>81000000</v>
       </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
         <v>81000000</v>
       </c>
-      <c r="O53" t="n">
+      <c r="Q54" t="n">
         <v>543000000</v>
       </c>
-      <c r="P53" t="n">
+      <c r="R54" t="n">
         <v>8791000000</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="S54" t="n">
         <v>2168000000</v>
       </c>
-      <c r="R53" t="n">
-        <v>0</v>
-      </c>
-      <c r="S53" t="n">
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
         <v>11380000000</v>
       </c>
-      <c r="T53" t="n">
+      <c r="V54" t="n">
         <v>6677000000</v>
       </c>
-      <c r="U53" t="n">
+      <c r="W54" t="n">
         <v>8710000000</v>
       </c>
-      <c r="V53" t="n">
+      <c r="X54" t="n">
         <v>9253000000</v>
       </c>
-      <c r="W53" t="n">
+      <c r="Y54" t="n">
         <v>6623000000</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2011-06-30</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
         <v>11922000000</v>
       </c>
-      <c r="B54" t="n">
+      <c r="D55" t="n">
         <v>28571000000</v>
       </c>
-      <c r="C54" t="n">
+      <c r="E55" t="n">
         <v>18564000000</v>
       </c>
-      <c r="D54" t="n">
+      <c r="F55" t="n">
         <v>16649000000</v>
       </c>
-      <c r="E54" t="n">
+      <c r="G55" t="n">
         <v>9379000000</v>
       </c>
-      <c r="F54" t="n">
+      <c r="H55" t="n">
         <v>1915000000</v>
       </c>
-      <c r="G54" t="n">
+      <c r="I55" t="n">
         <v>628000000</v>
       </c>
-      <c r="H54" t="n">
+      <c r="J55" t="n">
         <v>2543000000</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
         <v>172000000</v>
       </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
         <v>172000000</v>
       </c>
-      <c r="O54" t="n">
+      <c r="Q55" t="n">
         <v>481000000</v>
       </c>
-      <c r="P54" t="n">
+      <c r="R55" t="n">
         <v>9551000000</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="S55" t="n">
         <v>2243000000</v>
       </c>
-      <c r="R54" t="n">
-        <v>0</v>
-      </c>
-      <c r="S54" t="n">
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
         <v>7308000000</v>
       </c>
-      <c r="T54" t="n">
+      <c r="V55" t="n">
         <v>7571000000</v>
       </c>
-      <c r="U54" t="n">
+      <c r="W55" t="n">
         <v>9379000000</v>
       </c>
-      <c r="V54" t="n">
+      <c r="X55" t="n">
         <v>9860000000</v>
       </c>
-      <c r="W54" t="n">
+      <c r="Y55" t="n">
         <v>7308000000</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2011-03-31</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
         <v>10218000000</v>
       </c>
-      <c r="B55" t="n">
+      <c r="D56" t="n">
         <v>24708000000</v>
       </c>
-      <c r="C55" t="n">
+      <c r="E56" t="n">
         <v>16212000000</v>
       </c>
-      <c r="D55" t="n">
+      <c r="F56" t="n">
         <v>14449000000</v>
       </c>
-      <c r="E55" t="n">
+      <c r="G56" t="n">
         <v>7874000000</v>
       </c>
-      <c r="F55" t="n">
+      <c r="H56" t="n">
         <v>1763000000</v>
       </c>
-      <c r="G55" t="n">
+      <c r="I56" t="n">
         <v>581000000</v>
       </c>
-      <c r="H55" t="n">
+      <c r="J56" t="n">
         <v>2344000000</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
         <v>26000000</v>
       </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="n">
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
         <v>26000000</v>
       </c>
-      <c r="O55" t="n">
+      <c r="Q56" t="n">
         <v>434000000</v>
       </c>
-      <c r="P55" t="n">
+      <c r="R56" t="n">
         <v>7900000000</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="S56" t="n">
         <v>1913000000</v>
       </c>
-      <c r="R55" t="n">
-        <v>0</v>
-      </c>
-      <c r="S55" t="n">
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
         <v>5987000000</v>
       </c>
-      <c r="T55" t="n">
+      <c r="V56" t="n">
         <v>5999000000</v>
       </c>
-      <c r="U55" t="n">
+      <c r="W56" t="n">
         <v>7874000000</v>
       </c>
-      <c r="V55" t="n">
+      <c r="X56" t="n">
         <v>8308000000</v>
       </c>
-      <c r="W55" t="n">
+      <c r="Y56" t="n">
         <v>5987000000</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2010-12-31</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
         <v>10298000000</v>
       </c>
-      <c r="B56" t="n">
+      <c r="D57" t="n">
         <v>26741000000</v>
       </c>
-      <c r="C56" t="n">
+      <c r="E57" t="n">
         <v>18339000000</v>
       </c>
-      <c r="D56" t="n">
+      <c r="F57" t="n">
         <v>16443000000</v>
       </c>
-      <c r="E56" t="n">
+      <c r="G57" t="n">
         <v>7827000000</v>
       </c>
-      <c r="F56" t="n">
+      <c r="H57" t="n">
         <v>1896000000</v>
       </c>
-      <c r="G56" t="n">
+      <c r="I57" t="n">
         <v>575000000</v>
       </c>
-      <c r="H56" t="n">
+      <c r="J57" t="n">
         <v>2471000000</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
         <v>136000000</v>
       </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" t="n">
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
         <v>136000000</v>
       </c>
-      <c r="O56" t="n">
+      <c r="Q57" t="n">
         <v>356000000</v>
       </c>
-      <c r="P56" t="n">
+      <c r="R57" t="n">
         <v>7963000000</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="S57" t="n">
         <v>1959000000</v>
       </c>
-      <c r="R56" t="n">
-        <v>0</v>
-      </c>
-      <c r="S56" t="n">
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
         <v>6004000000</v>
       </c>
-      <c r="T56" t="n">
+      <c r="V57" t="n">
         <v>6164000000</v>
       </c>
-      <c r="U56" t="n">
+      <c r="W57" t="n">
         <v>7827000000</v>
       </c>
-      <c r="V56" t="n">
+      <c r="X57" t="n">
         <v>8183000000</v>
       </c>
-      <c r="W56" t="n">
+      <c r="Y57" t="n">
         <v>6004000000</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2010-09-30</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
         <v>7512000000</v>
       </c>
-      <c r="B57" t="n">
+      <c r="D58" t="n">
         <v>20343000000</v>
       </c>
-      <c r="C57" t="n">
+      <c r="E58" t="n">
         <v>15217000000</v>
       </c>
-      <c r="D57" t="n">
+      <c r="F58" t="n">
         <v>12831000000</v>
       </c>
-      <c r="E57" t="n">
+      <c r="G58" t="n">
         <v>5447000000</v>
       </c>
-      <c r="F57" t="n">
+      <c r="H58" t="n">
         <v>1571000000</v>
       </c>
-      <c r="G57" t="n">
+      <c r="I58" t="n">
         <v>494000000</v>
       </c>
-      <c r="H57" t="n">
+      <c r="J58" t="n">
         <v>2065000000</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
         <v>14000000</v>
       </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
         <v>14000000</v>
       </c>
-      <c r="O57" t="n">
+      <c r="Q58" t="n">
         <v>329000000</v>
       </c>
-      <c r="P57" t="n">
+      <c r="R58" t="n">
         <v>5461000000</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="S58" t="n">
         <v>1153000000</v>
       </c>
-      <c r="R57" t="n">
-        <v>0</v>
-      </c>
-      <c r="S57" t="n">
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
         <v>7512000000</v>
       </c>
-      <c r="T57" t="n">
+      <c r="V58" t="n">
         <v>4154000000</v>
       </c>
-      <c r="U57" t="n">
+      <c r="W58" t="n">
         <v>5447000000</v>
       </c>
-      <c r="V57" t="n">
+      <c r="X58" t="n">
         <v>5776000000</v>
       </c>
-      <c r="W57" t="n">
+      <c r="Y58" t="n">
         <v>4308000000</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2010-06-30</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
         <v>6136000000</v>
       </c>
-      <c r="B58" t="n">
+      <c r="D59" t="n">
         <v>15700000000</v>
       </c>
-      <c r="C58" t="n">
+      <c r="E59" t="n">
         <v>11002000000</v>
       </c>
-      <c r="D58" t="n">
+      <c r="F59" t="n">
         <v>9564000000</v>
       </c>
-      <c r="E58" t="n">
+      <c r="G59" t="n">
         <v>4234000000</v>
       </c>
-      <c r="F58" t="n">
+      <c r="H59" t="n">
         <v>1438000000</v>
       </c>
-      <c r="G58" t="n">
+      <c r="I59" t="n">
         <v>464000000</v>
       </c>
-      <c r="H58" t="n">
+      <c r="J59" t="n">
         <v>1902000000</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
         <v>58000000</v>
       </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="n">
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
         <v>58000000</v>
       </c>
-      <c r="O58" t="n">
+      <c r="Q59" t="n">
         <v>273000000</v>
       </c>
-      <c r="P58" t="n">
+      <c r="R59" t="n">
         <v>4292000000</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="S59" t="n">
         <v>1039000000</v>
       </c>
-      <c r="R58" t="n">
-        <v>0</v>
-      </c>
-      <c r="S58" t="n">
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
         <v>3253000000</v>
       </c>
-      <c r="T58" t="n">
+      <c r="V59" t="n">
         <v>3236000000</v>
       </c>
-      <c r="U58" t="n">
+      <c r="W59" t="n">
         <v>4234000000</v>
       </c>
-      <c r="V58" t="n">
+      <c r="X59" t="n">
         <v>4507000000</v>
       </c>
-      <c r="W58" t="n">
+      <c r="Y59" t="n">
         <v>3253000000</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2010-03-31</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
         <v>5625000000</v>
       </c>
-      <c r="B59" t="n">
+      <c r="D60" t="n">
         <v>13499000000</v>
       </c>
-      <c r="C59" t="n">
+      <c r="E60" t="n">
         <v>9094000000</v>
       </c>
-      <c r="D59" t="n">
+      <c r="F60" t="n">
         <v>7874000000</v>
       </c>
-      <c r="E59" t="n">
+      <c r="G60" t="n">
         <v>3979000000</v>
       </c>
-      <c r="F59" t="n">
+      <c r="H60" t="n">
         <v>1220000000</v>
       </c>
-      <c r="G59" t="n">
+      <c r="I60" t="n">
         <v>426000000</v>
       </c>
-      <c r="H59" t="n">
+      <c r="J60" t="n">
         <v>1646000000</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
         <v>266000000</v>
       </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="n">
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
         <v>50000000</v>
       </c>
-      <c r="O59" t="n">
+      <c r="Q60" t="n">
         <v>216000000</v>
       </c>
-      <c r="P59" t="n">
+      <c r="R60" t="n">
         <v>4029000000</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="S60" t="n">
         <v>955000000</v>
       </c>
-      <c r="R59" t="n">
-        <v>0</v>
-      </c>
-      <c r="S59" t="n">
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
         <v>3074000000</v>
       </c>
-      <c r="T59" t="n">
+      <c r="V60" t="n">
         <v>3088000000</v>
       </c>
-      <c r="U59" t="n">
+      <c r="W60" t="n">
         <v>3979000000</v>
       </c>
-      <c r="V59" t="n">
+      <c r="X60" t="n">
         <v>3979000000</v>
       </c>
-      <c r="W59" t="n">
+      <c r="Y60" t="n">
         <v>3074000000</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2009-12-31</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
         <v>6411000000</v>
       </c>
-      <c r="B60" t="n">
+      <c r="D61" t="n">
         <v>15683000000</v>
       </c>
-      <c r="C60" t="n">
+      <c r="E61" t="n">
         <v>10560000000</v>
       </c>
-      <c r="D60" t="n">
+      <c r="F61" t="n">
         <v>9272000000</v>
       </c>
-      <c r="E60" t="n">
+      <c r="G61" t="n">
         <v>4725000000</v>
       </c>
-      <c r="F60" t="n">
+      <c r="H61" t="n">
         <v>1288000000</v>
       </c>
-      <c r="G60" t="n">
+      <c r="I61" t="n">
         <v>398000000</v>
       </c>
-      <c r="H60" t="n">
+      <c r="J61" t="n">
         <v>1686000000</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
         <v>33000000</v>
       </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="n">
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
         <v>33000000</v>
       </c>
-      <c r="O60" t="n">
+      <c r="Q61" t="n">
         <v>209000000</v>
       </c>
-      <c r="P60" t="n">
+      <c r="R61" t="n">
         <v>4758000000</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="S61" t="n">
         <v>1380000000</v>
       </c>
-      <c r="R60" t="n">
-        <v>0</v>
-      </c>
-      <c r="S60" t="n">
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
         <v>3378000000</v>
       </c>
-      <c r="T60" t="n">
+      <c r="V61" t="n">
         <v>3412000000</v>
       </c>
-      <c r="U60" t="n">
+      <c r="W61" t="n">
         <v>4725000000</v>
       </c>
-      <c r="V60" t="n">
+      <c r="X61" t="n">
         <v>4934000000</v>
       </c>
-      <c r="W60" t="n">
+      <c r="Y61" t="n">
         <v>3378000000</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2009-09-30</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
         <v>5105000000</v>
       </c>
-      <c r="B61" t="n">
+      <c r="D62" t="n">
         <v>12207000000</v>
       </c>
-      <c r="C61" t="n">
+      <c r="E62" t="n">
         <v>7102000000</v>
       </c>
-      <c r="D61" t="n">
+      <c r="F62" t="n">
         <v>7102000000</v>
       </c>
-      <c r="E61" t="n">
+      <c r="G62" t="n">
         <v>3684000000</v>
       </c>
-      <c r="F61" t="n">
+      <c r="H62" t="n">
         <v>1063000000</v>
       </c>
-      <c r="G61" t="n">
+      <c r="I62" t="n">
         <v>358000000</v>
       </c>
-      <c r="H61" t="n">
+      <c r="J62" t="n">
         <v>1421000000</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
         <v>45000000</v>
       </c>
-      <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" t="n">
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
         <v>197000000</v>
       </c>
-      <c r="P61" t="n">
+      <c r="R62" t="n">
         <v>3729000000</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="S62" t="n">
         <v>1197000000</v>
       </c>
-      <c r="R61" t="n">
-        <v>0</v>
-      </c>
-      <c r="S61" t="n">
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
         <v>5105000000</v>
       </c>
-      <c r="T61" t="n">
+      <c r="V62" t="n">
         <v>2628000000</v>
       </c>
-      <c r="U61" t="n">
+      <c r="W62" t="n">
         <v>3684000000</v>
       </c>
-      <c r="V61" t="n">
+      <c r="X62" t="n">
         <v>2390000000</v>
       </c>
-      <c r="W61" t="n">
+      <c r="Y62" t="n">
         <v>2532000000</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2009-06-30</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
         <v>3983000000</v>
       </c>
-      <c r="B62" t="n">
+      <c r="D63" t="n">
         <v>8337000000</v>
       </c>
-      <c r="C62" t="n">
+      <c r="E63" t="n">
         <v>5314000000</v>
       </c>
-      <c r="D62" t="n">
+      <c r="F63" t="n">
         <v>5751000000</v>
       </c>
-      <c r="E62" t="n">
+      <c r="G63" t="n">
         <v>2632000000</v>
       </c>
-      <c r="F62" t="n">
+      <c r="H63" t="n">
         <v>1010000000</v>
       </c>
-      <c r="G62" t="n">
+      <c r="I63" t="n">
         <v>341000000</v>
       </c>
-      <c r="H62" t="n">
+      <c r="J63" t="n">
         <v>1351000000</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
         <v>236000000</v>
       </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="n">
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
         <v>60000000</v>
       </c>
-      <c r="O62" t="n">
+      <c r="Q63" t="n">
         <v>176000000</v>
       </c>
-      <c r="P62" t="n">
+      <c r="R63" t="n">
         <v>2692000000</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="S63" t="n">
         <v>864000000</v>
       </c>
-      <c r="R62" t="n">
-        <v>0</v>
-      </c>
-      <c r="S62" t="n">
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
         <v>1229000000</v>
       </c>
-      <c r="T62" t="n">
+      <c r="V63" t="n">
         <v>1900000000</v>
       </c>
-      <c r="U62" t="n">
+      <c r="W63" t="n">
         <v>2632000000</v>
       </c>
-      <c r="V62" t="n">
+      <c r="X63" t="n">
         <v>1672000000</v>
       </c>
-      <c r="W62" t="n">
+      <c r="Y63" t="n">
         <v>1828000000</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2009-03-31</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
         <v>3627000000</v>
       </c>
-      <c r="B63" t="n">
+      <c r="D64" t="n">
         <v>8163000000</v>
       </c>
-      <c r="C63" t="n">
+      <c r="E64" t="n">
         <v>5192000000</v>
       </c>
-      <c r="D63" t="n">
+      <c r="F64" t="n">
         <v>5457000000</v>
       </c>
-      <c r="E63" t="n">
+      <c r="G64" t="n">
         <v>2323000000</v>
       </c>
-      <c r="F63" t="n">
+      <c r="H64" t="n">
         <v>985000000</v>
       </c>
-      <c r="G63" t="n">
+      <c r="I64" t="n">
         <v>319000000</v>
       </c>
-      <c r="H63" t="n">
+      <c r="J64" t="n">
         <v>1304000000</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
         <v>63000000</v>
       </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" t="n">
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
         <v>172000000</v>
       </c>
-      <c r="P63" t="n">
+      <c r="R64" t="n">
         <v>2386000000</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="S64" t="n">
         <v>766000000</v>
       </c>
-      <c r="R63" t="n">
-        <v>0</v>
-      </c>
-      <c r="S63" t="n">
-        <v>0</v>
-      </c>
-      <c r="T63" t="n">
-        <v>0</v>
-      </c>
-      <c r="U63" t="n">
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
         <v>2323000000</v>
       </c>
-      <c r="V63" t="n">
+      <c r="X64" t="n">
         <v>1839000000</v>
       </c>
-      <c r="W63" t="n">
+      <c r="Y64" t="n">
         <v>1620000000</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2008-12-31</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
         <v>4507000000</v>
       </c>
-      <c r="B64" t="n">
+      <c r="D65" t="n">
         <v>10167000000</v>
       </c>
-      <c r="C64" t="n">
+      <c r="E65" t="n">
         <v>6635000000</v>
       </c>
-      <c r="D64" t="n">
+      <c r="F65" t="n">
         <v>7373000000</v>
       </c>
-      <c r="E64" t="n">
+      <c r="G65" t="n">
         <v>3101000000</v>
       </c>
-      <c r="F64" t="n">
+      <c r="H65" t="n">
         <v>1091000000</v>
       </c>
-      <c r="G64" t="n">
+      <c r="I65" t="n">
         <v>315000000</v>
       </c>
-      <c r="H64" t="n">
+      <c r="J65" t="n">
         <v>1406000000</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
         <v>158000000</v>
       </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
         <v>158000000</v>
       </c>
-      <c r="P64" t="n">
+      <c r="R65" t="n">
         <v>3259000000</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="S65" t="n">
         <v>1004000000</v>
       </c>
-      <c r="R64" t="n">
-        <v>0</v>
-      </c>
-      <c r="S64" t="n">
-        <v>0</v>
-      </c>
-      <c r="T64" t="n">
-        <v>0</v>
-      </c>
-      <c r="U64" t="n">
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
         <v>3101000000</v>
       </c>
-      <c r="V64" t="n">
+      <c r="X65" t="n">
         <v>2284000000</v>
       </c>
-      <c r="W64" t="n">
+      <c r="Y65" t="n">
         <v>2255000000</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2008-09-30</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
         <v>4791000000</v>
       </c>
-      <c r="B65" t="n">
+      <c r="D66" t="n">
         <v>7895000000</v>
       </c>
-      <c r="C65" t="n">
+      <c r="E66" t="n">
         <v>5156000000</v>
       </c>
-      <c r="D65" t="n">
+      <c r="F66" t="n">
         <v>8116000000</v>
       </c>
-      <c r="E65" t="n">
+      <c r="G66" t="n">
         <v>3494000000</v>
       </c>
-      <c r="F65" t="n">
+      <c r="H66" t="n">
         <v>999000000</v>
       </c>
-      <c r="G65" t="n">
+      <c r="I66" t="n">
         <v>298000000</v>
       </c>
-      <c r="H65" t="n">
+      <c r="J66" t="n">
         <v>1297000000</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
         <v>140000000</v>
       </c>
-      <c r="M65" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65" t="n">
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
         <v>134000000</v>
       </c>
-      <c r="P65" t="n">
+      <c r="R66" t="n">
         <v>3634000000</v>
       </c>
-      <c r="Q65" t="n">
+      <c r="S66" t="n">
         <v>1213000000</v>
       </c>
-      <c r="R65" t="n">
-        <v>0</v>
-      </c>
-      <c r="S65" t="n">
-        <v>0</v>
-      </c>
-      <c r="T65" t="n">
-        <v>0</v>
-      </c>
-      <c r="U65" t="n">
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
         <v>3494000000</v>
       </c>
-      <c r="V65" t="n">
+      <c r="X66" t="n">
         <v>1576000000</v>
       </c>
-      <c r="W65" t="n">
+      <c r="Y66" t="n">
         <v>2421000000</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2008-06-30</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
         <v>2600000000</v>
       </c>
-      <c r="B66" t="n">
+      <c r="D67" t="n">
         <v>7464000000</v>
       </c>
-      <c r="C66" t="n">
+      <c r="E67" t="n">
         <v>4864000000</v>
       </c>
-      <c r="D66" t="n">
+      <c r="F67" t="n">
         <v>4864000000</v>
       </c>
-      <c r="E66" t="n">
+      <c r="G67" t="n">
         <v>1392000000</v>
       </c>
-      <c r="F66" t="n">
+      <c r="H67" t="n">
         <v>916000000</v>
       </c>
-      <c r="G66" t="n">
+      <c r="I67" t="n">
         <v>292000000</v>
       </c>
-      <c r="H66" t="n">
+      <c r="J67" t="n">
         <v>1208000000</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
         <v>118000000</v>
       </c>
-      <c r="M66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" t="n">
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
         <v>117000000</v>
       </c>
-      <c r="P66" t="n">
+      <c r="R67" t="n">
         <v>1510000000</v>
       </c>
-      <c r="Q66" t="n">
+      <c r="S67" t="n">
         <v>438000000</v>
       </c>
-      <c r="R66" t="n">
-        <v>0</v>
-      </c>
-      <c r="S66" t="n">
-        <v>0</v>
-      </c>
-      <c r="T66" t="n">
-        <v>0</v>
-      </c>
-      <c r="U66" t="n">
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
         <v>1392000000</v>
       </c>
-      <c r="V66" t="n">
+      <c r="X67" t="n">
         <v>1509000000</v>
       </c>
-      <c r="W66" t="n">
+      <c r="Y67" t="n">
         <v>1072000000</v>
       </c>
     </row>
